--- a/InputTable.xlsx
+++ b/InputTable.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pedro\OneDrive\Documentos\Projects\Timetabling\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E70CC70-5410-4DE8-8284-21813F93496B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD3969EE-3BB3-40F8-98B2-410A64201CE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{610BFD9D-4D13-47B9-A319-B13DCC8CE800}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="28">
   <si>
     <t>Type</t>
   </si>
@@ -117,6 +117,9 @@
   </si>
   <si>
     <t>Quantity per week</t>
+  </si>
+  <si>
+    <t>12:00 - 14:30</t>
   </si>
 </sst>
 </file>
@@ -844,7 +847,7 @@
   <dimension ref="B1:P27"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -953,7 +956,9 @@
       <c r="G4" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="H4" s="9"/>
+      <c r="H4" s="9">
+        <v>120</v>
+      </c>
       <c r="I4" s="18">
         <v>1</v>
       </c>
@@ -975,11 +980,15 @@
       <c r="F5" s="8"/>
       <c r="G5" s="8"/>
       <c r="H5" s="9"/>
-      <c r="I5" s="18"/>
+      <c r="I5" s="18">
+        <v>2</v>
+      </c>
       <c r="J5" s="17"/>
       <c r="K5" s="17"/>
       <c r="L5" s="17"/>
-      <c r="M5" s="17"/>
+      <c r="M5" s="17" t="s">
+        <v>27</v>
+      </c>
       <c r="N5" s="17"/>
       <c r="O5" s="17"/>
       <c r="P5" s="27"/>
@@ -1020,7 +1029,9 @@
       <c r="G7" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="H7" s="9"/>
+      <c r="H7" s="9">
+        <v>120</v>
+      </c>
       <c r="I7" s="18">
         <v>1</v>
       </c>
@@ -1091,7 +1102,9 @@
       <c r="G10" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="H10" s="9"/>
+      <c r="H10" s="9">
+        <v>120</v>
+      </c>
       <c r="I10" s="18">
         <v>1</v>
       </c>
@@ -1160,7 +1173,9 @@
       <c r="G13" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="H13" s="9"/>
+      <c r="H13" s="9">
+        <v>120</v>
+      </c>
       <c r="I13" s="18">
         <v>1</v>
       </c>

--- a/InputTable.xlsx
+++ b/InputTable.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pedro\OneDrive\Documentos\Projects\Timetabling\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD3969EE-3BB3-40F8-98B2-410A64201CE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB660880-7F69-4881-BA87-6F9201334E6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{610BFD9D-4D13-47B9-A319-B13DCC8CE800}"/>
   </bookViews>
@@ -419,7 +419,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -509,6 +509,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -847,7 +850,7 @@
   <dimension ref="B1:P27"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+      <selection activeCell="M6" sqref="M6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1005,7 +1008,7 @@
       <c r="J6" s="21"/>
       <c r="K6" s="22"/>
       <c r="L6" s="22"/>
-      <c r="M6" s="22"/>
+      <c r="M6" s="32"/>
       <c r="N6" s="22"/>
       <c r="O6" s="22"/>
       <c r="P6" s="23"/>

--- a/InputTable.xlsx
+++ b/InputTable.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pedro\OneDrive\Documentos\Projects\Timetabling\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB660880-7F69-4881-BA87-6F9201334E6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDA45FDC-B517-4EB5-9773-0D1630B36072}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{610BFD9D-4D13-47B9-A319-B13DCC8CE800}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="28">
   <si>
     <t>Type</t>
   </si>
@@ -98,18 +98,12 @@
     <t>T - Computational Vision</t>
   </si>
   <si>
-    <t>16:00 - 18:00</t>
-  </si>
-  <si>
     <t>T - Optimization and Decision</t>
   </si>
   <si>
     <t>14:30 - 16:30</t>
   </si>
   <si>
-    <t>13:00 - 15:00</t>
-  </si>
-  <si>
     <t>Yes</t>
   </si>
   <si>
@@ -119,7 +113,13 @@
     <t>Quantity per week</t>
   </si>
   <si>
-    <t>12:00 - 14:30</t>
+    <t>12:30 - 14:50</t>
+  </si>
+  <si>
+    <t>8:00 - 10:00</t>
+  </si>
+  <si>
+    <t>10:00 - 12:00</t>
   </si>
 </sst>
 </file>
@@ -419,7 +419,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -509,9 +509,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -850,7 +847,7 @@
   <dimension ref="B1:P27"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="M6" sqref="M6"/>
+      <selection activeCell="L16" sqref="L16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -907,10 +904,10 @@
         <v>1</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="H3" s="5" t="s">
         <v>13</v>
@@ -957,7 +954,7 @@
         <v>1</v>
       </c>
       <c r="G4" s="8" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="H4" s="9">
         <v>120</v>
@@ -988,10 +985,10 @@
       </c>
       <c r="J5" s="17"/>
       <c r="K5" s="17"/>
-      <c r="L5" s="17"/>
-      <c r="M5" s="17" t="s">
-        <v>27</v>
-      </c>
+      <c r="L5" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="M5" s="17"/>
       <c r="N5" s="17"/>
       <c r="O5" s="17"/>
       <c r="P5" s="27"/>
@@ -1008,7 +1005,7 @@
       <c r="J6" s="21"/>
       <c r="K6" s="22"/>
       <c r="L6" s="22"/>
-      <c r="M6" s="32"/>
+      <c r="M6" s="22"/>
       <c r="N6" s="22"/>
       <c r="O6" s="22"/>
       <c r="P6" s="23"/>
@@ -1030,7 +1027,7 @@
         <v>3</v>
       </c>
       <c r="G7" s="8" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="H7" s="9">
         <v>120</v>
@@ -1046,7 +1043,7 @@
         <v>18</v>
       </c>
       <c r="M7" s="25" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="N7" s="25"/>
       <c r="O7" s="25"/>
@@ -1103,7 +1100,7 @@
         <v>2</v>
       </c>
       <c r="G10" s="8" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="H10" s="9">
         <v>120</v>
@@ -1116,10 +1113,10 @@
         <v>16</v>
       </c>
       <c r="L10" s="25"/>
-      <c r="M10" s="25"/>
-      <c r="N10" s="25" t="s">
-        <v>20</v>
-      </c>
+      <c r="M10" s="25" t="s">
+        <v>16</v>
+      </c>
+      <c r="N10" s="25"/>
       <c r="O10" s="25"/>
       <c r="P10" s="26"/>
     </row>
@@ -1131,12 +1128,18 @@
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c r="H11" s="9"/>
-      <c r="I11" s="18"/>
+      <c r="I11" s="18">
+        <v>2</v>
+      </c>
       <c r="J11" s="29"/>
       <c r="K11" s="17"/>
-      <c r="L11" s="17"/>
+      <c r="L11" s="17" t="s">
+        <v>26</v>
+      </c>
       <c r="M11" s="17"/>
-      <c r="N11" s="17"/>
+      <c r="N11" s="17" t="s">
+        <v>26</v>
+      </c>
       <c r="O11" s="17"/>
       <c r="P11" s="27"/>
     </row>
@@ -1162,7 +1165,7 @@
         <v>4</v>
       </c>
       <c r="C13" s="19" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D13" s="8" t="s">
         <v>11</v>
@@ -1174,7 +1177,7 @@
         <v>2</v>
       </c>
       <c r="G13" s="8" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="H13" s="9">
         <v>120</v>
@@ -1184,13 +1187,13 @@
       </c>
       <c r="J13" s="24"/>
       <c r="K13" s="25" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L13" s="25"/>
-      <c r="M13" s="25"/>
-      <c r="N13" s="25" t="s">
-        <v>23</v>
-      </c>
+      <c r="M13" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="N13" s="25"/>
       <c r="O13" s="25"/>
       <c r="P13" s="26"/>
     </row>

--- a/InputTable.xlsx
+++ b/InputTable.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pedro\OneDrive\Documentos\Projects\Timetabling\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDA45FDC-B517-4EB5-9773-0D1630B36072}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD0216E9-A10C-41E8-B39A-EF35BB786116}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{610BFD9D-4D13-47B9-A319-B13DCC8CE800}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="31">
   <si>
     <t>Type</t>
   </si>
@@ -113,13 +113,22 @@
     <t>Quantity per week</t>
   </si>
   <si>
-    <t>12:30 - 14:50</t>
-  </si>
-  <si>
     <t>8:00 - 10:00</t>
   </si>
   <si>
     <t>10:00 - 12:00</t>
+  </si>
+  <si>
+    <t>9:00 - 11:00</t>
+  </si>
+  <si>
+    <t>Gym</t>
+  </si>
+  <si>
+    <t>Sport</t>
+  </si>
+  <si>
+    <t>14:00 - 18:00</t>
   </si>
 </sst>
 </file>
@@ -847,7 +856,7 @@
   <dimension ref="B1:P27"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="L16" sqref="L16"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -963,7 +972,9 @@
         <v>1</v>
       </c>
       <c r="J4" s="10"/>
-      <c r="K4" s="10"/>
+      <c r="K4" s="10" t="s">
+        <v>16</v>
+      </c>
       <c r="L4" s="10"/>
       <c r="M4" s="10" t="s">
         <v>16</v>
@@ -1043,7 +1054,7 @@
         <v>18</v>
       </c>
       <c r="M7" s="25" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="N7" s="25"/>
       <c r="O7" s="25"/>
@@ -1134,11 +1145,11 @@
       <c r="J11" s="29"/>
       <c r="K11" s="17"/>
       <c r="L11" s="17" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="M11" s="17"/>
       <c r="N11" s="17" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="O11" s="17"/>
       <c r="P11" s="27"/>
@@ -1191,7 +1202,7 @@
       </c>
       <c r="L13" s="25"/>
       <c r="M13" s="25" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="N13" s="25"/>
       <c r="O13" s="25"/>
@@ -1232,21 +1243,49 @@
       <c r="P15" s="16"/>
     </row>
     <row r="16" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B16" s="8"/>
-      <c r="C16" s="19"/>
-      <c r="D16" s="8"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="8"/>
-      <c r="G16" s="8"/>
-      <c r="H16" s="8"/>
-      <c r="I16" s="8"/>
-      <c r="J16" s="17"/>
-      <c r="K16" s="17"/>
-      <c r="L16" s="17"/>
-      <c r="M16" s="17"/>
-      <c r="N16" s="17"/>
-      <c r="O16" s="17"/>
-      <c r="P16" s="17"/>
+      <c r="B16" s="8">
+        <v>5</v>
+      </c>
+      <c r="C16" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="E16" s="8">
+        <v>1</v>
+      </c>
+      <c r="F16" s="8">
+        <v>3</v>
+      </c>
+      <c r="G16" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="H16" s="9">
+        <v>60</v>
+      </c>
+      <c r="I16" s="18">
+        <v>1</v>
+      </c>
+      <c r="J16" s="24"/>
+      <c r="K16" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="L16" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="M16" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="N16" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="O16" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="P16" s="25" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="17" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B17" s="8"/>
@@ -1255,32 +1294,32 @@
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
-      <c r="H17" s="8"/>
-      <c r="I17" s="8"/>
-      <c r="J17" s="17"/>
+      <c r="H17" s="9"/>
+      <c r="I17" s="18"/>
+      <c r="J17" s="29"/>
       <c r="K17" s="17"/>
       <c r="L17" s="17"/>
       <c r="M17" s="17"/>
       <c r="N17" s="17"/>
       <c r="O17" s="17"/>
-      <c r="P17" s="17"/>
+      <c r="P17" s="27"/>
     </row>
     <row r="18" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B18" s="8"/>
-      <c r="C18" s="19"/>
-      <c r="D18" s="8"/>
-      <c r="E18" s="8"/>
-      <c r="F18" s="8"/>
-      <c r="G18" s="8"/>
-      <c r="H18" s="8"/>
-      <c r="I18" s="8"/>
-      <c r="J18" s="17"/>
-      <c r="K18" s="17"/>
-      <c r="L18" s="17"/>
-      <c r="M18" s="17"/>
-      <c r="N18" s="17"/>
-      <c r="O18" s="17"/>
-      <c r="P18" s="17"/>
+      <c r="B18" s="12"/>
+      <c r="C18" s="20"/>
+      <c r="D18" s="12"/>
+      <c r="E18" s="12"/>
+      <c r="F18" s="12"/>
+      <c r="G18" s="12"/>
+      <c r="H18" s="13"/>
+      <c r="I18" s="28"/>
+      <c r="J18" s="14"/>
+      <c r="K18" s="15"/>
+      <c r="L18" s="15"/>
+      <c r="M18" s="15"/>
+      <c r="N18" s="15"/>
+      <c r="O18" s="15"/>
+      <c r="P18" s="16"/>
     </row>
     <row r="19" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B19" s="8"/>

--- a/InputTable.xlsx
+++ b/InputTable.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pedro\OneDrive\Documentos\Projects\Timetabling\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD301897-9C6F-4AD5-B8BB-6A254697DD69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0710D21-D713-4FAF-8252-48B305300C88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{610BFD9D-4D13-47B9-A319-B13DCC8CE800}"/>
   </bookViews>
@@ -844,7 +844,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="85">
+  <cellXfs count="84">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -954,34 +954,24 @@
     <xf numFmtId="0" fontId="6" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="20" fontId="0" fillId="6" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="20" fontId="0" fillId="6" borderId="31" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="20" fontId="0" fillId="6" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="20" fontId="0" fillId="6" borderId="32" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="20" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="20" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="20" fontId="0" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="20" fontId="0" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -992,18 +982,12 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1029,6 +1013,45 @@
     <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="44" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="45" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="44" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="46" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="44" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="44" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="46" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="45" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1047,38 +1070,14 @@
     <xf numFmtId="0" fontId="6" fillId="4" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="44" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="44" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="46" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="45" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="45" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="44" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="46" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="44" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1431,7 +1430,7 @@
   <dimension ref="A1:AQ242"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="88" workbookViewId="0">
-      <selection activeCell="Y16" sqref="Y16"/>
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1465,7 +1464,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:43" ht="4.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="4"/>
+      <c r="A1" s="2"/>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
@@ -1714,14 +1713,14 @@
       <c r="R6" s="5"/>
       <c r="S6" s="4"/>
       <c r="T6" s="5"/>
-      <c r="U6" s="41" t="s">
+      <c r="U6" s="81" t="s">
         <v>35</v>
       </c>
-      <c r="V6" s="42"/>
-      <c r="W6" s="42"/>
-      <c r="X6" s="42"/>
-      <c r="Y6" s="42"/>
-      <c r="Z6" s="43"/>
+      <c r="V6" s="82"/>
+      <c r="W6" s="82"/>
+      <c r="X6" s="82"/>
+      <c r="Y6" s="82"/>
+      <c r="Z6" s="83"/>
       <c r="AA6" s="5"/>
       <c r="AB6" s="4"/>
       <c r="AC6" s="4"/>
@@ -1761,11 +1760,11 @@
       <c r="R7" s="5"/>
       <c r="S7" s="4"/>
       <c r="T7" s="5"/>
-      <c r="U7" s="45"/>
-      <c r="V7" s="52"/>
-      <c r="W7" s="53"/>
-      <c r="X7" s="53"/>
-      <c r="Y7" s="53"/>
+      <c r="U7" s="42"/>
+      <c r="V7" s="48"/>
+      <c r="W7" s="49"/>
+      <c r="X7" s="49"/>
+      <c r="Y7" s="49"/>
       <c r="Z7" s="5"/>
       <c r="AA7" s="5"/>
       <c r="AB7" s="4"/>
@@ -1795,30 +1794,30 @@
       <c r="G8" s="5"/>
       <c r="H8" s="5"/>
       <c r="I8" s="5"/>
-      <c r="J8" s="66"/>
-      <c r="K8" s="63"/>
-      <c r="L8" s="61"/>
-      <c r="M8" s="61"/>
-      <c r="N8" s="62" t="s">
+      <c r="J8" s="60"/>
+      <c r="K8" s="57"/>
+      <c r="L8" s="55"/>
+      <c r="M8" s="55"/>
+      <c r="N8" s="56" t="s">
         <v>9</v>
       </c>
-      <c r="O8" s="61"/>
-      <c r="P8" s="61"/>
-      <c r="Q8" s="61"/>
-      <c r="R8" s="50"/>
+      <c r="O8" s="55"/>
+      <c r="P8" s="55"/>
+      <c r="Q8" s="55"/>
+      <c r="R8" s="5"/>
       <c r="S8" s="4"/>
       <c r="T8" s="5"/>
-      <c r="U8" s="45"/>
-      <c r="V8" s="51" t="s">
+      <c r="U8" s="42"/>
+      <c r="V8" s="47" t="s">
         <v>37</v>
       </c>
-      <c r="W8" s="51" t="s">
+      <c r="W8" s="47" t="s">
         <v>36</v>
       </c>
-      <c r="X8" s="51" t="s">
+      <c r="X8" s="47" t="s">
         <v>38</v>
       </c>
-      <c r="Y8" s="67" t="s">
+      <c r="Y8" s="61" t="s">
         <v>42</v>
       </c>
       <c r="Z8" s="5"/>
@@ -1849,45 +1848,45 @@
       <c r="F9" s="5"/>
       <c r="G9" s="5"/>
       <c r="H9" s="5"/>
-      <c r="I9" s="44"/>
-      <c r="J9" s="64" t="s">
+      <c r="I9" s="41"/>
+      <c r="J9" s="58" t="s">
         <v>33</v>
       </c>
-      <c r="K9" s="46">
+      <c r="K9" s="43">
         <v>0.25</v>
       </c>
-      <c r="L9" s="46">
+      <c r="L9" s="43">
         <v>0.25</v>
       </c>
-      <c r="M9" s="46">
+      <c r="M9" s="43">
         <v>0.25</v>
       </c>
-      <c r="N9" s="46">
+      <c r="N9" s="43">
         <v>0.25</v>
       </c>
-      <c r="O9" s="46">
+      <c r="O9" s="43">
         <v>0.25</v>
       </c>
-      <c r="P9" s="46">
+      <c r="P9" s="43">
         <v>0.25</v>
       </c>
-      <c r="Q9" s="47">
+      <c r="Q9" s="44">
         <v>0.25</v>
       </c>
       <c r="R9" s="5"/>
       <c r="S9" s="4"/>
       <c r="T9" s="5"/>
       <c r="U9" s="5"/>
-      <c r="V9" s="54">
+      <c r="V9" s="50">
         <v>10</v>
       </c>
-      <c r="W9" s="54">
+      <c r="W9" s="50">
         <v>100</v>
       </c>
-      <c r="X9" s="54">
+      <c r="X9" s="50">
         <v>1</v>
       </c>
-      <c r="Y9" s="54">
+      <c r="Y9" s="50">
         <v>10</v>
       </c>
       <c r="Z9" s="5"/>
@@ -1918,29 +1917,29 @@
       <c r="F10" s="5"/>
       <c r="G10" s="5"/>
       <c r="H10" s="5"/>
-      <c r="I10" s="44"/>
-      <c r="J10" s="65" t="s">
+      <c r="I10" s="41"/>
+      <c r="J10" s="59" t="s">
         <v>34</v>
       </c>
-      <c r="K10" s="48">
+      <c r="K10" s="45">
         <v>0.83333333333333337</v>
       </c>
-      <c r="L10" s="48">
+      <c r="L10" s="45">
         <v>0.83333333333333337</v>
       </c>
-      <c r="M10" s="48">
+      <c r="M10" s="45">
         <v>0.83333333333333337</v>
       </c>
-      <c r="N10" s="48">
+      <c r="N10" s="45">
         <v>0.83333333333333337</v>
       </c>
-      <c r="O10" s="48">
+      <c r="O10" s="45">
         <v>0.83333333333333337</v>
       </c>
-      <c r="P10" s="48">
+      <c r="P10" s="45">
         <v>0.83333333333333337</v>
       </c>
-      <c r="Q10" s="49">
+      <c r="Q10" s="46">
         <v>0.83333333333333337</v>
       </c>
       <c r="R10" s="5"/>
@@ -2021,14 +2020,14 @@
       <c r="R11" s="5"/>
       <c r="S11" s="4"/>
       <c r="T11" s="5"/>
-      <c r="U11" s="41" t="s">
+      <c r="U11" s="81" t="s">
         <v>44</v>
       </c>
-      <c r="V11" s="42"/>
-      <c r="W11" s="42"/>
-      <c r="X11" s="42"/>
-      <c r="Y11" s="42"/>
-      <c r="Z11" s="43"/>
+      <c r="V11" s="82"/>
+      <c r="W11" s="82"/>
+      <c r="X11" s="82"/>
+      <c r="Y11" s="82"/>
+      <c r="Z11" s="83"/>
       <c r="AA11" s="5"/>
       <c r="AB11" s="4"/>
       <c r="AC11" s="4"/>
@@ -2088,12 +2087,12 @@
       <c r="R12" s="5"/>
       <c r="S12" s="4"/>
       <c r="T12" s="5"/>
-      <c r="U12" s="53"/>
-      <c r="V12" s="53"/>
-      <c r="W12" s="53"/>
-      <c r="X12" s="53"/>
-      <c r="Y12" s="53"/>
-      <c r="Z12" s="53"/>
+      <c r="U12" s="49"/>
+      <c r="V12" s="49"/>
+      <c r="W12" s="49"/>
+      <c r="X12" s="49"/>
+      <c r="Y12" s="49"/>
+      <c r="Z12" s="49"/>
       <c r="AA12" s="5"/>
       <c r="AB12" s="4"/>
       <c r="AC12" s="4"/>
@@ -2137,16 +2136,16 @@
       <c r="R13" s="5"/>
       <c r="S13" s="4"/>
       <c r="T13" s="5"/>
-      <c r="U13" s="56" t="s">
+      <c r="U13" s="51" t="s">
         <v>39</v>
       </c>
-      <c r="V13" s="56"/>
-      <c r="W13" s="56"/>
-      <c r="X13" s="56"/>
-      <c r="Y13" s="55" t="s">
+      <c r="V13" s="51"/>
+      <c r="W13" s="51"/>
+      <c r="X13" s="51"/>
+      <c r="Y13" s="68" t="s">
         <v>1</v>
       </c>
-      <c r="Z13" s="55"/>
+      <c r="Z13" s="68"/>
       <c r="AA13" s="5"/>
       <c r="AB13" s="4"/>
       <c r="AC13" s="4"/>
@@ -2186,14 +2185,14 @@
       <c r="R14" s="5"/>
       <c r="S14" s="4"/>
       <c r="T14" s="5"/>
-      <c r="U14" s="57" t="s">
+      <c r="U14" s="52" t="s">
         <v>41</v>
       </c>
-      <c r="V14" s="57"/>
-      <c r="W14" s="57"/>
-      <c r="X14" s="57"/>
-      <c r="Y14" s="57"/>
-      <c r="Z14" s="57"/>
+      <c r="V14" s="52"/>
+      <c r="W14" s="52"/>
+      <c r="X14" s="52"/>
+      <c r="Y14" s="52"/>
+      <c r="Z14" s="52"/>
       <c r="AA14" s="5"/>
       <c r="AB14" s="4"/>
       <c r="AC14" s="4"/>
@@ -2255,14 +2254,14 @@
       <c r="R15" s="5"/>
       <c r="S15" s="4"/>
       <c r="T15" s="5"/>
-      <c r="U15" s="80" t="s">
+      <c r="U15" s="72" t="s">
         <v>40</v>
       </c>
-      <c r="V15" s="80"/>
-      <c r="W15" s="80"/>
-      <c r="X15" s="80"/>
-      <c r="Y15" s="81"/>
-      <c r="Z15" s="81"/>
+      <c r="V15" s="72"/>
+      <c r="W15" s="72"/>
+      <c r="X15" s="72"/>
+      <c r="Y15" s="65"/>
+      <c r="Z15" s="65"/>
       <c r="AA15" s="5"/>
       <c r="AB15" s="4"/>
       <c r="AC15" s="4"/>
@@ -2302,12 +2301,12 @@
       <c r="R16" s="5"/>
       <c r="S16" s="4"/>
       <c r="T16" s="5"/>
-      <c r="U16" s="59"/>
-      <c r="V16" s="59"/>
-      <c r="W16" s="59"/>
-      <c r="X16" s="59"/>
-      <c r="Y16" s="76"/>
-      <c r="Z16" s="75"/>
+      <c r="U16" s="73"/>
+      <c r="V16" s="73"/>
+      <c r="W16" s="73"/>
+      <c r="X16" s="73"/>
+      <c r="Y16" s="64"/>
+      <c r="Z16" s="63"/>
       <c r="AA16" s="5"/>
       <c r="AB16" s="4"/>
       <c r="AC16" s="4"/>
@@ -2347,14 +2346,14 @@
       <c r="R17" s="5"/>
       <c r="S17" s="4"/>
       <c r="T17" s="5"/>
-      <c r="U17" s="84" t="s">
+      <c r="U17" s="69" t="s">
         <v>45</v>
       </c>
-      <c r="V17" s="84"/>
-      <c r="W17" s="84"/>
-      <c r="X17" s="84"/>
-      <c r="Y17" s="74"/>
-      <c r="Z17" s="74"/>
+      <c r="V17" s="69"/>
+      <c r="W17" s="69"/>
+      <c r="X17" s="69"/>
+      <c r="Y17" s="62"/>
+      <c r="Z17" s="62"/>
       <c r="AA17" s="5"/>
       <c r="AB17" s="4"/>
       <c r="AC17" s="4"/>
@@ -2414,12 +2413,12 @@
       <c r="R18" s="5"/>
       <c r="S18" s="4"/>
       <c r="T18" s="5"/>
-      <c r="U18" s="60"/>
-      <c r="V18" s="60"/>
-      <c r="W18" s="60"/>
-      <c r="X18" s="60"/>
-      <c r="Y18" s="83"/>
-      <c r="Z18" s="83"/>
+      <c r="U18" s="54"/>
+      <c r="V18" s="54"/>
+      <c r="W18" s="54"/>
+      <c r="X18" s="54"/>
+      <c r="Y18" s="67"/>
+      <c r="Z18" s="67"/>
       <c r="AA18" s="5"/>
       <c r="AB18" s="4"/>
       <c r="AC18" s="4"/>
@@ -2465,11 +2464,11 @@
       <c r="R19" s="5"/>
       <c r="S19" s="4"/>
       <c r="T19" s="5"/>
-      <c r="U19" s="58"/>
-      <c r="V19" s="58"/>
-      <c r="W19" s="58"/>
-      <c r="X19" s="58"/>
-      <c r="Y19" s="58"/>
+      <c r="U19" s="53"/>
+      <c r="V19" s="53"/>
+      <c r="W19" s="53"/>
+      <c r="X19" s="53"/>
+      <c r="Y19" s="53"/>
       <c r="Z19" s="15"/>
       <c r="AA19" s="5"/>
       <c r="AB19" s="4"/>
@@ -2510,14 +2509,14 @@
       <c r="R20" s="5"/>
       <c r="S20" s="4"/>
       <c r="T20" s="5"/>
-      <c r="U20" s="68" t="s">
+      <c r="U20" s="75" t="s">
         <v>43</v>
       </c>
-      <c r="V20" s="69"/>
-      <c r="W20" s="69"/>
-      <c r="X20" s="69"/>
-      <c r="Y20" s="69"/>
-      <c r="Z20" s="70"/>
+      <c r="V20" s="76"/>
+      <c r="W20" s="76"/>
+      <c r="X20" s="76"/>
+      <c r="Y20" s="76"/>
+      <c r="Z20" s="77"/>
       <c r="AA20" s="5"/>
       <c r="AB20" s="4"/>
       <c r="AC20" s="4"/>
@@ -2577,12 +2576,12 @@
       <c r="R21" s="5"/>
       <c r="S21" s="4"/>
       <c r="T21" s="5"/>
-      <c r="U21" s="71"/>
-      <c r="V21" s="72"/>
-      <c r="W21" s="72"/>
-      <c r="X21" s="72"/>
-      <c r="Y21" s="72"/>
-      <c r="Z21" s="73"/>
+      <c r="U21" s="78"/>
+      <c r="V21" s="79"/>
+      <c r="W21" s="79"/>
+      <c r="X21" s="79"/>
+      <c r="Y21" s="79"/>
+      <c r="Z21" s="80"/>
       <c r="AA21" s="5"/>
       <c r="AB21" s="4"/>
       <c r="AC21" s="4"/>
@@ -2622,11 +2621,11 @@
       <c r="R22" s="5"/>
       <c r="S22" s="4"/>
       <c r="T22" s="5"/>
-      <c r="U22" s="58"/>
-      <c r="V22" s="58"/>
-      <c r="W22" s="58"/>
-      <c r="X22" s="58"/>
-      <c r="Y22" s="58"/>
+      <c r="U22" s="53"/>
+      <c r="V22" s="53"/>
+      <c r="W22" s="53"/>
+      <c r="X22" s="53"/>
+      <c r="Y22" s="53"/>
       <c r="Z22" s="15"/>
       <c r="AA22" s="5"/>
       <c r="AB22" s="4"/>
@@ -2667,16 +2666,16 @@
       <c r="R23" s="5"/>
       <c r="S23" s="4"/>
       <c r="T23" s="5"/>
-      <c r="U23" s="56" t="s">
+      <c r="U23" s="51" t="s">
         <v>39</v>
       </c>
-      <c r="V23" s="56"/>
-      <c r="W23" s="56"/>
-      <c r="X23" s="56"/>
-      <c r="Y23" s="55" t="s">
+      <c r="V23" s="51"/>
+      <c r="W23" s="51"/>
+      <c r="X23" s="51"/>
+      <c r="Y23" s="68" t="s">
         <v>1</v>
       </c>
-      <c r="Z23" s="55"/>
+      <c r="Z23" s="68"/>
       <c r="AA23" s="5"/>
       <c r="AB23" s="4"/>
       <c r="AC23" s="4"/>
@@ -2744,12 +2743,12 @@
       <c r="R24" s="5"/>
       <c r="S24" s="4"/>
       <c r="T24" s="5"/>
-      <c r="U24" s="78"/>
-      <c r="V24" s="78"/>
-      <c r="W24" s="78"/>
-      <c r="X24" s="78"/>
-      <c r="Y24" s="57"/>
-      <c r="Z24" s="57"/>
+      <c r="U24" s="74"/>
+      <c r="V24" s="74"/>
+      <c r="W24" s="74"/>
+      <c r="X24" s="74"/>
+      <c r="Y24" s="52"/>
+      <c r="Z24" s="52"/>
       <c r="AA24" s="5"/>
       <c r="AB24" s="4"/>
       <c r="AC24" s="4"/>
@@ -2789,12 +2788,12 @@
       <c r="R25" s="5"/>
       <c r="S25" s="4"/>
       <c r="T25" s="5"/>
-      <c r="U25" s="77"/>
-      <c r="V25" s="77"/>
-      <c r="W25" s="77"/>
-      <c r="X25" s="77"/>
-      <c r="Y25" s="82"/>
-      <c r="Z25" s="82"/>
+      <c r="U25" s="70"/>
+      <c r="V25" s="70"/>
+      <c r="W25" s="70"/>
+      <c r="X25" s="70"/>
+      <c r="Y25" s="66"/>
+      <c r="Z25" s="66"/>
       <c r="AA25" s="5"/>
       <c r="AB25" s="4"/>
       <c r="AC25" s="4"/>
@@ -2834,12 +2833,12 @@
       <c r="R26" s="5"/>
       <c r="S26" s="4"/>
       <c r="T26" s="5"/>
-      <c r="U26" s="77"/>
-      <c r="V26" s="77"/>
-      <c r="W26" s="77"/>
-      <c r="X26" s="77"/>
-      <c r="Y26" s="82"/>
-      <c r="Z26" s="82"/>
+      <c r="U26" s="70"/>
+      <c r="V26" s="70"/>
+      <c r="W26" s="70"/>
+      <c r="X26" s="70"/>
+      <c r="Y26" s="66"/>
+      <c r="Z26" s="66"/>
       <c r="AA26" s="5"/>
       <c r="AB26" s="4"/>
       <c r="AC26" s="4"/>
@@ -2879,12 +2878,12 @@
       <c r="R27" s="5"/>
       <c r="S27" s="4"/>
       <c r="T27" s="5"/>
-      <c r="U27" s="77"/>
-      <c r="V27" s="77"/>
-      <c r="W27" s="77"/>
-      <c r="X27" s="77"/>
-      <c r="Y27" s="74"/>
-      <c r="Z27" s="74"/>
+      <c r="U27" s="70"/>
+      <c r="V27" s="70"/>
+      <c r="W27" s="70"/>
+      <c r="X27" s="70"/>
+      <c r="Y27" s="62"/>
+      <c r="Z27" s="62"/>
       <c r="AA27" s="5"/>
       <c r="AB27" s="4"/>
       <c r="AC27" s="4"/>
@@ -2924,12 +2923,12 @@
       <c r="R28" s="4"/>
       <c r="S28" s="4"/>
       <c r="T28" s="5"/>
-      <c r="U28" s="79"/>
-      <c r="V28" s="79"/>
-      <c r="W28" s="79"/>
-      <c r="X28" s="79"/>
-      <c r="Y28" s="83"/>
-      <c r="Z28" s="83"/>
+      <c r="U28" s="71"/>
+      <c r="V28" s="71"/>
+      <c r="W28" s="71"/>
+      <c r="X28" s="71"/>
+      <c r="Y28" s="67"/>
+      <c r="Z28" s="67"/>
       <c r="AA28" s="5"/>
       <c r="AB28" s="4"/>
       <c r="AC28" s="4"/>
@@ -2969,11 +2968,11 @@
       <c r="R29" s="4"/>
       <c r="S29" s="4"/>
       <c r="T29" s="5"/>
-      <c r="U29" s="58"/>
-      <c r="V29" s="58"/>
-      <c r="W29" s="58"/>
-      <c r="X29" s="58"/>
-      <c r="Y29" s="58"/>
+      <c r="U29" s="53"/>
+      <c r="V29" s="53"/>
+      <c r="W29" s="53"/>
+      <c r="X29" s="53"/>
+      <c r="Y29" s="53"/>
       <c r="Z29" s="15"/>
       <c r="AA29" s="5"/>
       <c r="AB29" s="4"/>
@@ -12580,6 +12579,8 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="U11:Z11"/>
+    <mergeCell ref="U6:Z6"/>
     <mergeCell ref="Y13:Z13"/>
     <mergeCell ref="Y23:Z23"/>
     <mergeCell ref="U17:X17"/>
@@ -12590,8 +12591,6 @@
     <mergeCell ref="U25:X25"/>
     <mergeCell ref="U26:X26"/>
     <mergeCell ref="U20:Z21"/>
-    <mergeCell ref="U11:Z11"/>
-    <mergeCell ref="U6:Z6"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>

--- a/InputTable.xlsx
+++ b/InputTable.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pedro\OneDrive\Documentos\Projects\Timetabling\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0710D21-D713-4FAF-8252-48B305300C88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B765C55-4AAD-41AF-AD05-37EB6F68BB6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{610BFD9D-4D13-47B9-A319-B13DCC8CE800}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="47">
   <si>
     <t>Type</t>
   </si>
@@ -119,9 +119,6 @@
     <t>10:00 - 12:00</t>
   </si>
   <si>
-    <t>9:00 - 11:00</t>
-  </si>
-  <si>
     <t>Gym</t>
   </si>
   <si>
@@ -192,10 +189,16 @@
     <t>OTHER CONFIGURATIONS</t>
   </si>
   <si>
-    <t>WHAT DO YOU PREFER?</t>
+    <t>End of the week more free?</t>
   </si>
   <si>
-    <t>End of the week more free?</t>
+    <t>11:00 - 13:00</t>
+  </si>
+  <si>
+    <t>WEEK DISTRIBUTION</t>
+  </si>
+  <si>
+    <t>What do you prefer?</t>
   </si>
 </sst>
 </file>
@@ -1016,20 +1019,20 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="44" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="45" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="44" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="46" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1070,13 +1073,13 @@
     <xf numFmtId="0" fontId="6" fillId="4" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="45" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="44" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1430,7 +1433,7 @@
   <dimension ref="A1:AQ242"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="88" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="U23" sqref="U23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1512,7 +1515,7 @@
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
@@ -1695,7 +1698,7 @@
       <c r="B6" s="5"/>
       <c r="C6" s="39"/>
       <c r="D6" s="40" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E6" s="5"/>
       <c r="F6" s="5"/>
@@ -1713,14 +1716,14 @@
       <c r="R6" s="5"/>
       <c r="S6" s="4"/>
       <c r="T6" s="5"/>
-      <c r="U6" s="81" t="s">
-        <v>35</v>
+      <c r="U6" s="65" t="s">
+        <v>34</v>
       </c>
-      <c r="V6" s="82"/>
-      <c r="W6" s="82"/>
-      <c r="X6" s="82"/>
-      <c r="Y6" s="82"/>
-      <c r="Z6" s="83"/>
+      <c r="V6" s="66"/>
+      <c r="W6" s="66"/>
+      <c r="X6" s="66"/>
+      <c r="Y6" s="66"/>
+      <c r="Z6" s="67"/>
       <c r="AA6" s="5"/>
       <c r="AB6" s="4"/>
       <c r="AC6" s="4"/>
@@ -1809,16 +1812,16 @@
       <c r="T8" s="5"/>
       <c r="U8" s="42"/>
       <c r="V8" s="47" t="s">
+        <v>36</v>
+      </c>
+      <c r="W8" s="47" t="s">
+        <v>35</v>
+      </c>
+      <c r="X8" s="47" t="s">
         <v>37</v>
       </c>
-      <c r="W8" s="47" t="s">
-        <v>36</v>
-      </c>
-      <c r="X8" s="47" t="s">
-        <v>38</v>
-      </c>
       <c r="Y8" s="61" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="Z8" s="5"/>
       <c r="AA8" s="5"/>
@@ -1850,7 +1853,7 @@
       <c r="H9" s="5"/>
       <c r="I9" s="41"/>
       <c r="J9" s="58" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K9" s="43">
         <v>0.25</v>
@@ -1884,7 +1887,7 @@
         <v>100</v>
       </c>
       <c r="X9" s="50">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="Y9" s="50">
         <v>10</v>
@@ -1919,7 +1922,7 @@
       <c r="H10" s="5"/>
       <c r="I10" s="41"/>
       <c r="J10" s="59" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K10" s="45">
         <v>0.83333333333333337</v>
@@ -2020,14 +2023,14 @@
       <c r="R11" s="5"/>
       <c r="S11" s="4"/>
       <c r="T11" s="5"/>
-      <c r="U11" s="81" t="s">
-        <v>44</v>
+      <c r="U11" s="65" t="s">
+        <v>45</v>
       </c>
-      <c r="V11" s="82"/>
-      <c r="W11" s="82"/>
-      <c r="X11" s="82"/>
-      <c r="Y11" s="82"/>
-      <c r="Z11" s="83"/>
+      <c r="V11" s="66"/>
+      <c r="W11" s="66"/>
+      <c r="X11" s="66"/>
+      <c r="Y11" s="66"/>
+      <c r="Z11" s="67"/>
       <c r="AA11" s="5"/>
       <c r="AB11" s="4"/>
       <c r="AC11" s="4"/>
@@ -2082,7 +2085,9 @@
         <v>16</v>
       </c>
       <c r="O12" s="18"/>
-      <c r="P12" s="18"/>
+      <c r="P12" s="18" t="s">
+        <v>16</v>
+      </c>
       <c r="Q12" s="19"/>
       <c r="R12" s="5"/>
       <c r="S12" s="4"/>
@@ -2121,14 +2126,10 @@
       <c r="G13" s="15"/>
       <c r="H13" s="15"/>
       <c r="I13" s="16"/>
-      <c r="J13" s="17">
-        <v>2</v>
-      </c>
+      <c r="J13" s="17"/>
       <c r="K13" s="21"/>
       <c r="L13" s="21"/>
-      <c r="M13" s="21" t="s">
-        <v>16</v>
-      </c>
+      <c r="M13" s="21"/>
       <c r="N13" s="21"/>
       <c r="O13" s="21"/>
       <c r="P13" s="21"/>
@@ -2137,7 +2138,7 @@
       <c r="S13" s="4"/>
       <c r="T13" s="5"/>
       <c r="U13" s="51" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="V13" s="51"/>
       <c r="W13" s="51"/>
@@ -2186,13 +2187,15 @@
       <c r="S14" s="4"/>
       <c r="T14" s="5"/>
       <c r="U14" s="52" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="V14" s="52"/>
       <c r="W14" s="52"/>
       <c r="X14" s="52"/>
-      <c r="Y14" s="52"/>
-      <c r="Z14" s="52"/>
+      <c r="Y14" s="74">
+        <v>0</v>
+      </c>
+      <c r="Z14" s="74"/>
       <c r="AA14" s="5"/>
       <c r="AB14" s="4"/>
       <c r="AC14" s="4"/>
@@ -2255,13 +2258,15 @@
       <c r="S15" s="4"/>
       <c r="T15" s="5"/>
       <c r="U15" s="72" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="V15" s="72"/>
       <c r="W15" s="72"/>
       <c r="X15" s="72"/>
-      <c r="Y15" s="65"/>
-      <c r="Z15" s="65"/>
+      <c r="Y15" s="81">
+        <v>0</v>
+      </c>
+      <c r="Z15" s="81"/>
       <c r="AA15" s="5"/>
       <c r="AB15" s="4"/>
       <c r="AC15" s="4"/>
@@ -2305,8 +2310,8 @@
       <c r="V16" s="73"/>
       <c r="W16" s="73"/>
       <c r="X16" s="73"/>
-      <c r="Y16" s="64"/>
-      <c r="Z16" s="63"/>
+      <c r="Y16" s="82"/>
+      <c r="Z16" s="82"/>
       <c r="AA16" s="5"/>
       <c r="AB16" s="4"/>
       <c r="AC16" s="4"/>
@@ -2347,13 +2352,15 @@
       <c r="S17" s="4"/>
       <c r="T17" s="5"/>
       <c r="U17" s="69" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="V17" s="69"/>
       <c r="W17" s="69"/>
       <c r="X17" s="69"/>
-      <c r="Y17" s="62"/>
-      <c r="Z17" s="62"/>
+      <c r="Y17" s="83">
+        <v>1</v>
+      </c>
+      <c r="Z17" s="83"/>
       <c r="AA17" s="5"/>
       <c r="AB17" s="4"/>
       <c r="AC17" s="4"/>
@@ -2417,8 +2424,8 @@
       <c r="V18" s="54"/>
       <c r="W18" s="54"/>
       <c r="X18" s="54"/>
-      <c r="Y18" s="67"/>
-      <c r="Z18" s="67"/>
+      <c r="Y18" s="64"/>
+      <c r="Z18" s="64"/>
       <c r="AA18" s="5"/>
       <c r="AB18" s="4"/>
       <c r="AC18" s="4"/>
@@ -2453,7 +2460,7 @@
       <c r="K19" s="35"/>
       <c r="L19" s="21"/>
       <c r="M19" s="21" t="s">
-        <v>27</v>
+        <v>44</v>
       </c>
       <c r="N19" s="21"/>
       <c r="O19" s="21" t="s">
@@ -2510,7 +2517,7 @@
       <c r="S20" s="4"/>
       <c r="T20" s="5"/>
       <c r="U20" s="75" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="V20" s="76"/>
       <c r="W20" s="76"/>
@@ -2667,7 +2674,7 @@
       <c r="S23" s="4"/>
       <c r="T23" s="5"/>
       <c r="U23" s="51" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="V23" s="51"/>
       <c r="W23" s="51"/>
@@ -2701,10 +2708,10 @@
         <v>5</v>
       </c>
       <c r="D24" s="31" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E24" s="15" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F24" s="15">
         <v>1</v>
@@ -2723,22 +2730,22 @@
       </c>
       <c r="K24" s="32"/>
       <c r="L24" s="33" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="M24" s="33" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="N24" s="33" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="O24" s="33" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="P24" s="33" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="Q24" s="34" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="R24" s="5"/>
       <c r="S24" s="4"/>
@@ -2792,8 +2799,8 @@
       <c r="V25" s="70"/>
       <c r="W25" s="70"/>
       <c r="X25" s="70"/>
-      <c r="Y25" s="66"/>
-      <c r="Z25" s="66"/>
+      <c r="Y25" s="63"/>
+      <c r="Z25" s="63"/>
       <c r="AA25" s="5"/>
       <c r="AB25" s="4"/>
       <c r="AC25" s="4"/>
@@ -2837,8 +2844,8 @@
       <c r="V26" s="70"/>
       <c r="W26" s="70"/>
       <c r="X26" s="70"/>
-      <c r="Y26" s="66"/>
-      <c r="Z26" s="66"/>
+      <c r="Y26" s="63"/>
+      <c r="Z26" s="63"/>
       <c r="AA26" s="5"/>
       <c r="AB26" s="4"/>
       <c r="AC26" s="4"/>
@@ -2927,8 +2934,8 @@
       <c r="V28" s="71"/>
       <c r="W28" s="71"/>
       <c r="X28" s="71"/>
-      <c r="Y28" s="67"/>
-      <c r="Z28" s="67"/>
+      <c r="Y28" s="64"/>
+      <c r="Z28" s="64"/>
       <c r="AA28" s="5"/>
       <c r="AB28" s="4"/>
       <c r="AC28" s="4"/>
@@ -12578,12 +12585,7 @@
       <c r="AQ242" s="4"/>
     </row>
   </sheetData>
-  <mergeCells count="12">
-    <mergeCell ref="U11:Z11"/>
-    <mergeCell ref="U6:Z6"/>
-    <mergeCell ref="Y13:Z13"/>
-    <mergeCell ref="Y23:Z23"/>
-    <mergeCell ref="U17:X17"/>
+  <mergeCells count="15">
     <mergeCell ref="U27:X27"/>
     <mergeCell ref="U28:X28"/>
     <mergeCell ref="U15:X16"/>
@@ -12591,6 +12593,14 @@
     <mergeCell ref="U25:X25"/>
     <mergeCell ref="U26:X26"/>
     <mergeCell ref="U20:Z21"/>
+    <mergeCell ref="Y15:Z16"/>
+    <mergeCell ref="Y17:Z17"/>
+    <mergeCell ref="U11:Z11"/>
+    <mergeCell ref="U6:Z6"/>
+    <mergeCell ref="Y13:Z13"/>
+    <mergeCell ref="Y23:Z23"/>
+    <mergeCell ref="U17:X17"/>
+    <mergeCell ref="Y14:Z14"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>

--- a/InputTable.xlsx
+++ b/InputTable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pedro\OneDrive\Documentos\Projects\Timetabling\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B765C55-4AAD-41AF-AD05-37EB6F68BB6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{678BBD92-C811-4347-BF94-B8213FA16AC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{610BFD9D-4D13-47B9-A319-B13DCC8CE800}"/>
+    <workbookView xWindow="228" yWindow="480" windowWidth="20088" windowHeight="8880" xr2:uid="{610BFD9D-4D13-47B9-A319-B13DCC8CE800}"/>
   </bookViews>
   <sheets>
     <sheet name="INPUT PARAMETERS" sheetId="1" r:id="rId1"/>
@@ -1025,21 +1025,6 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="46" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="44" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="44" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1081,6 +1066,21 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="44" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="44" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1432,8 +1432,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE2BA9C2-F3B5-4674-AF68-15DE52FC27D8}">
   <dimension ref="A1:AQ242"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="88" workbookViewId="0">
-      <selection activeCell="U23" sqref="U23"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="D1" zoomScale="88" workbookViewId="0">
+      <selection activeCell="U11" sqref="U11:Z11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1716,14 +1716,14 @@
       <c r="R6" s="5"/>
       <c r="S6" s="4"/>
       <c r="T6" s="5"/>
-      <c r="U6" s="65" t="s">
+      <c r="U6" s="79" t="s">
         <v>34</v>
       </c>
-      <c r="V6" s="66"/>
-      <c r="W6" s="66"/>
-      <c r="X6" s="66"/>
-      <c r="Y6" s="66"/>
-      <c r="Z6" s="67"/>
+      <c r="V6" s="80"/>
+      <c r="W6" s="80"/>
+      <c r="X6" s="80"/>
+      <c r="Y6" s="80"/>
+      <c r="Z6" s="81"/>
       <c r="AA6" s="5"/>
       <c r="AB6" s="4"/>
       <c r="AC6" s="4"/>
@@ -1887,7 +1887,7 @@
         <v>100</v>
       </c>
       <c r="X9" s="50">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="Y9" s="50">
         <v>10</v>
@@ -2023,14 +2023,14 @@
       <c r="R11" s="5"/>
       <c r="S11" s="4"/>
       <c r="T11" s="5"/>
-      <c r="U11" s="65" t="s">
+      <c r="U11" s="79" t="s">
         <v>45</v>
       </c>
-      <c r="V11" s="66"/>
-      <c r="W11" s="66"/>
-      <c r="X11" s="66"/>
-      <c r="Y11" s="66"/>
-      <c r="Z11" s="67"/>
+      <c r="V11" s="80"/>
+      <c r="W11" s="80"/>
+      <c r="X11" s="80"/>
+      <c r="Y11" s="80"/>
+      <c r="Z11" s="81"/>
       <c r="AA11" s="5"/>
       <c r="AB11" s="4"/>
       <c r="AC11" s="4"/>
@@ -2143,10 +2143,10 @@
       <c r="V13" s="51"/>
       <c r="W13" s="51"/>
       <c r="X13" s="51"/>
-      <c r="Y13" s="68" t="s">
+      <c r="Y13" s="82" t="s">
         <v>1</v>
       </c>
-      <c r="Z13" s="68"/>
+      <c r="Z13" s="82"/>
       <c r="AA13" s="5"/>
       <c r="AB13" s="4"/>
       <c r="AC13" s="4"/>
@@ -2192,10 +2192,10 @@
       <c r="V14" s="52"/>
       <c r="W14" s="52"/>
       <c r="X14" s="52"/>
-      <c r="Y14" s="74">
+      <c r="Y14" s="69">
         <v>0</v>
       </c>
-      <c r="Z14" s="74"/>
+      <c r="Z14" s="69"/>
       <c r="AA14" s="5"/>
       <c r="AB14" s="4"/>
       <c r="AC14" s="4"/>
@@ -2257,16 +2257,16 @@
       <c r="R15" s="5"/>
       <c r="S15" s="4"/>
       <c r="T15" s="5"/>
-      <c r="U15" s="72" t="s">
+      <c r="U15" s="67" t="s">
         <v>39</v>
       </c>
-      <c r="V15" s="72"/>
-      <c r="W15" s="72"/>
-      <c r="X15" s="72"/>
-      <c r="Y15" s="81">
+      <c r="V15" s="67"/>
+      <c r="W15" s="67"/>
+      <c r="X15" s="67"/>
+      <c r="Y15" s="76">
         <v>0</v>
       </c>
-      <c r="Z15" s="81"/>
+      <c r="Z15" s="76"/>
       <c r="AA15" s="5"/>
       <c r="AB15" s="4"/>
       <c r="AC15" s="4"/>
@@ -2306,12 +2306,12 @@
       <c r="R16" s="5"/>
       <c r="S16" s="4"/>
       <c r="T16" s="5"/>
-      <c r="U16" s="73"/>
-      <c r="V16" s="73"/>
-      <c r="W16" s="73"/>
-      <c r="X16" s="73"/>
-      <c r="Y16" s="82"/>
-      <c r="Z16" s="82"/>
+      <c r="U16" s="68"/>
+      <c r="V16" s="68"/>
+      <c r="W16" s="68"/>
+      <c r="X16" s="68"/>
+      <c r="Y16" s="77"/>
+      <c r="Z16" s="77"/>
       <c r="AA16" s="5"/>
       <c r="AB16" s="4"/>
       <c r="AC16" s="4"/>
@@ -2351,16 +2351,16 @@
       <c r="R17" s="5"/>
       <c r="S17" s="4"/>
       <c r="T17" s="5"/>
-      <c r="U17" s="69" t="s">
+      <c r="U17" s="83" t="s">
         <v>43</v>
       </c>
-      <c r="V17" s="69"/>
-      <c r="W17" s="69"/>
-      <c r="X17" s="69"/>
-      <c r="Y17" s="83">
+      <c r="V17" s="83"/>
+      <c r="W17" s="83"/>
+      <c r="X17" s="83"/>
+      <c r="Y17" s="78">
         <v>1</v>
       </c>
-      <c r="Z17" s="83"/>
+      <c r="Z17" s="78"/>
       <c r="AA17" s="5"/>
       <c r="AB17" s="4"/>
       <c r="AC17" s="4"/>
@@ -2516,14 +2516,14 @@
       <c r="R20" s="5"/>
       <c r="S20" s="4"/>
       <c r="T20" s="5"/>
-      <c r="U20" s="75" t="s">
+      <c r="U20" s="70" t="s">
         <v>42</v>
       </c>
-      <c r="V20" s="76"/>
-      <c r="W20" s="76"/>
-      <c r="X20" s="76"/>
-      <c r="Y20" s="76"/>
-      <c r="Z20" s="77"/>
+      <c r="V20" s="71"/>
+      <c r="W20" s="71"/>
+      <c r="X20" s="71"/>
+      <c r="Y20" s="71"/>
+      <c r="Z20" s="72"/>
       <c r="AA20" s="5"/>
       <c r="AB20" s="4"/>
       <c r="AC20" s="4"/>
@@ -2583,12 +2583,12 @@
       <c r="R21" s="5"/>
       <c r="S21" s="4"/>
       <c r="T21" s="5"/>
-      <c r="U21" s="78"/>
-      <c r="V21" s="79"/>
-      <c r="W21" s="79"/>
-      <c r="X21" s="79"/>
-      <c r="Y21" s="79"/>
-      <c r="Z21" s="80"/>
+      <c r="U21" s="73"/>
+      <c r="V21" s="74"/>
+      <c r="W21" s="74"/>
+      <c r="X21" s="74"/>
+      <c r="Y21" s="74"/>
+      <c r="Z21" s="75"/>
       <c r="AA21" s="5"/>
       <c r="AB21" s="4"/>
       <c r="AC21" s="4"/>
@@ -2679,10 +2679,10 @@
       <c r="V23" s="51"/>
       <c r="W23" s="51"/>
       <c r="X23" s="51"/>
-      <c r="Y23" s="68" t="s">
+      <c r="Y23" s="82" t="s">
         <v>1</v>
       </c>
-      <c r="Z23" s="68"/>
+      <c r="Z23" s="82"/>
       <c r="AA23" s="5"/>
       <c r="AB23" s="4"/>
       <c r="AC23" s="4"/>
@@ -2750,10 +2750,10 @@
       <c r="R24" s="5"/>
       <c r="S24" s="4"/>
       <c r="T24" s="5"/>
-      <c r="U24" s="74"/>
-      <c r="V24" s="74"/>
-      <c r="W24" s="74"/>
-      <c r="X24" s="74"/>
+      <c r="U24" s="69"/>
+      <c r="V24" s="69"/>
+      <c r="W24" s="69"/>
+      <c r="X24" s="69"/>
       <c r="Y24" s="52"/>
       <c r="Z24" s="52"/>
       <c r="AA24" s="5"/>
@@ -2795,10 +2795,10 @@
       <c r="R25" s="5"/>
       <c r="S25" s="4"/>
       <c r="T25" s="5"/>
-      <c r="U25" s="70"/>
-      <c r="V25" s="70"/>
-      <c r="W25" s="70"/>
-      <c r="X25" s="70"/>
+      <c r="U25" s="65"/>
+      <c r="V25" s="65"/>
+      <c r="W25" s="65"/>
+      <c r="X25" s="65"/>
       <c r="Y25" s="63"/>
       <c r="Z25" s="63"/>
       <c r="AA25" s="5"/>
@@ -2840,10 +2840,10 @@
       <c r="R26" s="5"/>
       <c r="S26" s="4"/>
       <c r="T26" s="5"/>
-      <c r="U26" s="70"/>
-      <c r="V26" s="70"/>
-      <c r="W26" s="70"/>
-      <c r="X26" s="70"/>
+      <c r="U26" s="65"/>
+      <c r="V26" s="65"/>
+      <c r="W26" s="65"/>
+      <c r="X26" s="65"/>
       <c r="Y26" s="63"/>
       <c r="Z26" s="63"/>
       <c r="AA26" s="5"/>
@@ -2885,10 +2885,10 @@
       <c r="R27" s="5"/>
       <c r="S27" s="4"/>
       <c r="T27" s="5"/>
-      <c r="U27" s="70"/>
-      <c r="V27" s="70"/>
-      <c r="W27" s="70"/>
-      <c r="X27" s="70"/>
+      <c r="U27" s="65"/>
+      <c r="V27" s="65"/>
+      <c r="W27" s="65"/>
+      <c r="X27" s="65"/>
       <c r="Y27" s="62"/>
       <c r="Z27" s="62"/>
       <c r="AA27" s="5"/>
@@ -2930,10 +2930,10 @@
       <c r="R28" s="4"/>
       <c r="S28" s="4"/>
       <c r="T28" s="5"/>
-      <c r="U28" s="71"/>
-      <c r="V28" s="71"/>
-      <c r="W28" s="71"/>
-      <c r="X28" s="71"/>
+      <c r="U28" s="66"/>
+      <c r="V28" s="66"/>
+      <c r="W28" s="66"/>
+      <c r="X28" s="66"/>
       <c r="Y28" s="64"/>
       <c r="Z28" s="64"/>
       <c r="AA28" s="5"/>
@@ -12586,6 +12586,12 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="U11:Z11"/>
+    <mergeCell ref="U6:Z6"/>
+    <mergeCell ref="Y13:Z13"/>
+    <mergeCell ref="Y23:Z23"/>
+    <mergeCell ref="U17:X17"/>
+    <mergeCell ref="Y14:Z14"/>
     <mergeCell ref="U27:X27"/>
     <mergeCell ref="U28:X28"/>
     <mergeCell ref="U15:X16"/>
@@ -12595,12 +12601,6 @@
     <mergeCell ref="U20:Z21"/>
     <mergeCell ref="Y15:Z16"/>
     <mergeCell ref="Y17:Z17"/>
-    <mergeCell ref="U11:Z11"/>
-    <mergeCell ref="U6:Z6"/>
-    <mergeCell ref="Y13:Z13"/>
-    <mergeCell ref="Y23:Z23"/>
-    <mergeCell ref="U17:X17"/>
-    <mergeCell ref="Y14:Z14"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>

--- a/InputTable.xlsx
+++ b/InputTable.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pedro\OneDrive\Documentos\Projects\Timetabling\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{678BBD92-C811-4347-BF94-B8213FA16AC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A12BFFF4-F0C7-488D-9809-0A694886D2C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="228" yWindow="480" windowWidth="20088" windowHeight="8880" xr2:uid="{610BFD9D-4D13-47B9-A319-B13DCC8CE800}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{610BFD9D-4D13-47B9-A319-B13DCC8CE800}"/>
   </bookViews>
   <sheets>
     <sheet name="INPUT PARAMETERS" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="parameters">'INPUT PARAMETERS'!$T$5:$AA$29</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -36,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="46">
   <si>
     <t>Type</t>
   </si>
@@ -119,15 +122,6 @@
     <t>10:00 - 12:00</t>
   </si>
   <si>
-    <t>Gym</t>
-  </si>
-  <si>
-    <t>Sport</t>
-  </si>
-  <si>
-    <t>14:00 - 18:00</t>
-  </si>
-  <si>
     <t>INPUT PARAMETERS</t>
   </si>
   <si>
@@ -200,12 +194,18 @@
   <si>
     <t>What do you prefer?</t>
   </si>
+  <si>
+    <t>Yes/No (1/0)</t>
+  </si>
+  <si>
+    <t>12:30 - 18:30</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -279,6 +279,14 @@
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="7">
@@ -847,7 +855,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="84">
+  <cellXfs count="86">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -960,9 +968,6 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="20" fontId="0" fillId="6" borderId="31" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -975,31 +980,8 @@
     <xf numFmtId="20" fontId="0" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="35" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1013,74 +995,141 @@
     <xf numFmtId="0" fontId="8" fillId="6" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="44" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
+      <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="44" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="46" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="44" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="46" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="44" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
+      <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="44" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="44" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="44" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="46" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="46" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="45" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="45" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="45" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="44" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="45" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="44" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="44" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1091,6 +1140,7 @@
   <colors>
     <mruColors>
       <color rgb="FF104861"/>
+      <color rgb="FF000000"/>
       <color rgb="FFFFEDB3"/>
       <color rgb="FF8497B0"/>
       <color rgb="FFFFD966"/>
@@ -1099,7 +1149,6 @@
       <color rgb="FF6F8FEB"/>
       <color rgb="FF72C3E8"/>
       <color rgb="FFF4BFA2"/>
-      <color rgb="FFA7AFFF"/>
     </mruColors>
   </colors>
   <extLst>
@@ -1432,8 +1481,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE2BA9C2-F3B5-4674-AF68-15DE52FC27D8}">
   <dimension ref="A1:AQ242"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="D1" zoomScale="88" workbookViewId="0">
-      <selection activeCell="U11" sqref="U11:Z11"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A2" zoomScale="88" workbookViewId="0">
+      <selection activeCell="P6" sqref="P6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1515,7 +1564,7 @@
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="6" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
@@ -1526,7 +1575,7 @@
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
-      <c r="M2" s="1"/>
+      <c r="M2" s="3"/>
       <c r="N2" s="1"/>
       <c r="O2" s="1"/>
       <c r="P2" s="1"/>
@@ -1668,14 +1717,14 @@
       <c r="Q5" s="5"/>
       <c r="R5" s="5"/>
       <c r="S5" s="4"/>
-      <c r="T5" s="5"/>
-      <c r="U5" s="5"/>
-      <c r="V5" s="5"/>
-      <c r="W5" s="5"/>
-      <c r="X5" s="5"/>
-      <c r="Y5" s="5"/>
-      <c r="Z5" s="5"/>
-      <c r="AA5" s="5"/>
+      <c r="T5" s="52"/>
+      <c r="U5" s="52"/>
+      <c r="V5" s="52"/>
+      <c r="W5" s="52"/>
+      <c r="X5" s="52"/>
+      <c r="Y5" s="52"/>
+      <c r="Z5" s="52"/>
+      <c r="AA5" s="52"/>
       <c r="AB5" s="4"/>
       <c r="AC5" s="4"/>
       <c r="AD5" s="4"/>
@@ -1698,7 +1747,7 @@
       <c r="B6" s="5"/>
       <c r="C6" s="39"/>
       <c r="D6" s="40" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E6" s="5"/>
       <c r="F6" s="5"/>
@@ -1715,16 +1764,16 @@
       <c r="Q6" s="5"/>
       <c r="R6" s="5"/>
       <c r="S6" s="4"/>
-      <c r="T6" s="5"/>
-      <c r="U6" s="79" t="s">
-        <v>34</v>
+      <c r="T6" s="52"/>
+      <c r="U6" s="67" t="s">
+        <v>31</v>
       </c>
-      <c r="V6" s="80"/>
-      <c r="W6" s="80"/>
-      <c r="X6" s="80"/>
-      <c r="Y6" s="80"/>
-      <c r="Z6" s="81"/>
-      <c r="AA6" s="5"/>
+      <c r="V6" s="68"/>
+      <c r="W6" s="68"/>
+      <c r="X6" s="68"/>
+      <c r="Y6" s="68"/>
+      <c r="Z6" s="69"/>
+      <c r="AA6" s="52"/>
       <c r="AB6" s="4"/>
       <c r="AC6" s="4"/>
       <c r="AD6" s="4"/>
@@ -1762,14 +1811,14 @@
       <c r="Q7" s="7"/>
       <c r="R7" s="5"/>
       <c r="S7" s="4"/>
-      <c r="T7" s="5"/>
-      <c r="U7" s="42"/>
-      <c r="V7" s="48"/>
-      <c r="W7" s="49"/>
-      <c r="X7" s="49"/>
-      <c r="Y7" s="49"/>
-      <c r="Z7" s="5"/>
-      <c r="AA7" s="5"/>
+      <c r="T7" s="52"/>
+      <c r="U7" s="53"/>
+      <c r="V7" s="54"/>
+      <c r="W7" s="55"/>
+      <c r="X7" s="55"/>
+      <c r="Y7" s="55"/>
+      <c r="Z7" s="52"/>
+      <c r="AA7" s="52"/>
       <c r="AB7" s="4"/>
       <c r="AC7" s="4"/>
       <c r="AD7" s="4"/>
@@ -1797,34 +1846,34 @@
       <c r="G8" s="5"/>
       <c r="H8" s="5"/>
       <c r="I8" s="5"/>
-      <c r="J8" s="60"/>
-      <c r="K8" s="57"/>
-      <c r="L8" s="55"/>
-      <c r="M8" s="55"/>
-      <c r="N8" s="56" t="s">
+      <c r="J8" s="50"/>
+      <c r="K8" s="47"/>
+      <c r="L8" s="46"/>
+      <c r="M8" s="46"/>
+      <c r="N8" s="51" t="s">
         <v>9</v>
       </c>
-      <c r="O8" s="55"/>
-      <c r="P8" s="55"/>
-      <c r="Q8" s="55"/>
+      <c r="O8" s="46"/>
+      <c r="P8" s="46"/>
+      <c r="Q8" s="46"/>
       <c r="R8" s="5"/>
       <c r="S8" s="4"/>
-      <c r="T8" s="5"/>
-      <c r="U8" s="42"/>
-      <c r="V8" s="47" t="s">
-        <v>36</v>
+      <c r="T8" s="52"/>
+      <c r="U8" s="53"/>
+      <c r="V8" s="56" t="s">
+        <v>33</v>
       </c>
-      <c r="W8" s="47" t="s">
-        <v>35</v>
+      <c r="W8" s="56" t="s">
+        <v>32</v>
       </c>
-      <c r="X8" s="47" t="s">
-        <v>37</v>
+      <c r="X8" s="56" t="s">
+        <v>34</v>
       </c>
-      <c r="Y8" s="61" t="s">
-        <v>41</v>
+      <c r="Y8" s="57" t="s">
+        <v>38</v>
       </c>
-      <c r="Z8" s="5"/>
-      <c r="AA8" s="5"/>
+      <c r="Z8" s="52"/>
+      <c r="AA8" s="52"/>
       <c r="AB8" s="4"/>
       <c r="AC8" s="4"/>
       <c r="AD8" s="4"/>
@@ -1852,48 +1901,48 @@
       <c r="G9" s="5"/>
       <c r="H9" s="5"/>
       <c r="I9" s="41"/>
-      <c r="J9" s="58" t="s">
-        <v>32</v>
+      <c r="J9" s="48" t="s">
+        <v>29</v>
       </c>
-      <c r="K9" s="43">
+      <c r="K9" s="42">
         <v>0.25</v>
       </c>
-      <c r="L9" s="43">
+      <c r="L9" s="42">
         <v>0.25</v>
       </c>
-      <c r="M9" s="43">
+      <c r="M9" s="42">
         <v>0.25</v>
       </c>
-      <c r="N9" s="43">
+      <c r="N9" s="42">
         <v>0.25</v>
       </c>
-      <c r="O9" s="43">
+      <c r="O9" s="42">
         <v>0.25</v>
       </c>
-      <c r="P9" s="43">
+      <c r="P9" s="42">
         <v>0.25</v>
       </c>
-      <c r="Q9" s="44">
+      <c r="Q9" s="43">
         <v>0.25</v>
       </c>
       <c r="R9" s="5"/>
       <c r="S9" s="4"/>
-      <c r="T9" s="5"/>
-      <c r="U9" s="5"/>
-      <c r="V9" s="50">
+      <c r="T9" s="52"/>
+      <c r="U9" s="52"/>
+      <c r="V9" s="58">
+        <v>100</v>
+      </c>
+      <c r="W9" s="58">
+        <v>10000</v>
+      </c>
+      <c r="X9" s="58">
         <v>10</v>
       </c>
-      <c r="W9" s="50">
-        <v>100</v>
+      <c r="Y9" s="58">
+        <v>30</v>
       </c>
-      <c r="X9" s="50">
-        <v>1</v>
-      </c>
-      <c r="Y9" s="50">
-        <v>10</v>
-      </c>
-      <c r="Z9" s="5"/>
-      <c r="AA9" s="5"/>
+      <c r="Z9" s="52"/>
+      <c r="AA9" s="52"/>
       <c r="AB9" s="4"/>
       <c r="AC9" s="4"/>
       <c r="AD9" s="4"/>
@@ -1921,40 +1970,40 @@
       <c r="G10" s="5"/>
       <c r="H10" s="5"/>
       <c r="I10" s="41"/>
-      <c r="J10" s="59" t="s">
-        <v>33</v>
+      <c r="J10" s="49" t="s">
+        <v>30</v>
       </c>
-      <c r="K10" s="45">
+      <c r="K10" s="44">
         <v>0.83333333333333337</v>
       </c>
-      <c r="L10" s="45">
+      <c r="L10" s="44">
         <v>0.83333333333333337</v>
       </c>
-      <c r="M10" s="45">
+      <c r="M10" s="44">
         <v>0.83333333333333337</v>
       </c>
-      <c r="N10" s="45">
+      <c r="N10" s="44">
         <v>0.83333333333333337</v>
       </c>
-      <c r="O10" s="45">
+      <c r="O10" s="44">
         <v>0.83333333333333337</v>
       </c>
-      <c r="P10" s="45">
+      <c r="P10" s="44">
         <v>0.83333333333333337</v>
       </c>
-      <c r="Q10" s="46">
+      <c r="Q10" s="45">
         <v>0.83333333333333337</v>
       </c>
       <c r="R10" s="5"/>
       <c r="S10" s="4"/>
-      <c r="T10" s="5"/>
-      <c r="U10" s="5"/>
-      <c r="V10" s="5"/>
-      <c r="W10" s="5"/>
-      <c r="X10" s="5"/>
-      <c r="Y10" s="5"/>
-      <c r="Z10" s="5"/>
-      <c r="AA10" s="5"/>
+      <c r="T10" s="52"/>
+      <c r="U10" s="52"/>
+      <c r="V10" s="52"/>
+      <c r="W10" s="52"/>
+      <c r="X10" s="52"/>
+      <c r="Y10" s="52"/>
+      <c r="Z10" s="52"/>
+      <c r="AA10" s="52"/>
       <c r="AB10" s="4"/>
       <c r="AC10" s="4"/>
       <c r="AD10" s="4"/>
@@ -2022,16 +2071,16 @@
       </c>
       <c r="R11" s="5"/>
       <c r="S11" s="4"/>
-      <c r="T11" s="5"/>
-      <c r="U11" s="79" t="s">
-        <v>45</v>
+      <c r="T11" s="52"/>
+      <c r="U11" s="67" t="s">
+        <v>42</v>
       </c>
-      <c r="V11" s="80"/>
-      <c r="W11" s="80"/>
-      <c r="X11" s="80"/>
-      <c r="Y11" s="80"/>
-      <c r="Z11" s="81"/>
-      <c r="AA11" s="5"/>
+      <c r="V11" s="68"/>
+      <c r="W11" s="68"/>
+      <c r="X11" s="68"/>
+      <c r="Y11" s="68"/>
+      <c r="Z11" s="69"/>
+      <c r="AA11" s="52"/>
       <c r="AB11" s="4"/>
       <c r="AC11" s="4"/>
       <c r="AD11" s="4"/>
@@ -2086,19 +2135,19 @@
       </c>
       <c r="O12" s="18"/>
       <c r="P12" s="18" t="s">
-        <v>16</v>
+        <v>45</v>
       </c>
       <c r="Q12" s="19"/>
       <c r="R12" s="5"/>
       <c r="S12" s="4"/>
-      <c r="T12" s="5"/>
-      <c r="U12" s="49"/>
-      <c r="V12" s="49"/>
-      <c r="W12" s="49"/>
-      <c r="X12" s="49"/>
-      <c r="Y12" s="49"/>
-      <c r="Z12" s="49"/>
-      <c r="AA12" s="5"/>
+      <c r="T12" s="52"/>
+      <c r="U12" s="55"/>
+      <c r="V12" s="55"/>
+      <c r="W12" s="55"/>
+      <c r="X12" s="55"/>
+      <c r="Y12" s="55"/>
+      <c r="Z12" s="55"/>
+      <c r="AA12" s="52"/>
       <c r="AB12" s="4"/>
       <c r="AC12" s="4"/>
       <c r="AD12" s="4"/>
@@ -2136,18 +2185,18 @@
       <c r="Q13" s="22"/>
       <c r="R13" s="5"/>
       <c r="S13" s="4"/>
-      <c r="T13" s="5"/>
-      <c r="U13" s="51" t="s">
-        <v>46</v>
+      <c r="T13" s="52"/>
+      <c r="U13" s="59" t="s">
+        <v>43</v>
       </c>
-      <c r="V13" s="51"/>
-      <c r="W13" s="51"/>
-      <c r="X13" s="51"/>
-      <c r="Y13" s="82" t="s">
-        <v>1</v>
+      <c r="V13" s="59"/>
+      <c r="W13" s="59"/>
+      <c r="X13" s="59"/>
+      <c r="Y13" s="70" t="s">
+        <v>44</v>
       </c>
-      <c r="Z13" s="82"/>
-      <c r="AA13" s="5"/>
+      <c r="Z13" s="70"/>
+      <c r="AA13" s="52"/>
       <c r="AB13" s="4"/>
       <c r="AC13" s="4"/>
       <c r="AD13" s="4"/>
@@ -2185,18 +2234,18 @@
       <c r="Q14" s="29"/>
       <c r="R14" s="5"/>
       <c r="S14" s="4"/>
-      <c r="T14" s="5"/>
-      <c r="U14" s="52" t="s">
-        <v>40</v>
+      <c r="T14" s="52"/>
+      <c r="U14" s="60" t="s">
+        <v>37</v>
       </c>
-      <c r="V14" s="52"/>
-      <c r="W14" s="52"/>
-      <c r="X14" s="52"/>
-      <c r="Y14" s="69">
+      <c r="V14" s="60"/>
+      <c r="W14" s="60"/>
+      <c r="X14" s="60"/>
+      <c r="Y14" s="72">
         <v>0</v>
       </c>
-      <c r="Z14" s="69"/>
-      <c r="AA14" s="5"/>
+      <c r="Z14" s="72"/>
+      <c r="AA14" s="52"/>
       <c r="AB14" s="4"/>
       <c r="AC14" s="4"/>
       <c r="AD14" s="4"/>
@@ -2256,18 +2305,18 @@
       <c r="Q15" s="34"/>
       <c r="R15" s="5"/>
       <c r="S15" s="4"/>
-      <c r="T15" s="5"/>
-      <c r="U15" s="67" t="s">
-        <v>39</v>
+      <c r="T15" s="52"/>
+      <c r="U15" s="75" t="s">
+        <v>36</v>
       </c>
-      <c r="V15" s="67"/>
-      <c r="W15" s="67"/>
-      <c r="X15" s="67"/>
-      <c r="Y15" s="76">
+      <c r="V15" s="75"/>
+      <c r="W15" s="75"/>
+      <c r="X15" s="75"/>
+      <c r="Y15" s="83">
         <v>0</v>
       </c>
-      <c r="Z15" s="76"/>
-      <c r="AA15" s="5"/>
+      <c r="Z15" s="83"/>
+      <c r="AA15" s="52"/>
       <c r="AB15" s="4"/>
       <c r="AC15" s="4"/>
       <c r="AD15" s="4"/>
@@ -2305,14 +2354,14 @@
       <c r="Q16" s="22"/>
       <c r="R16" s="5"/>
       <c r="S16" s="4"/>
-      <c r="T16" s="5"/>
-      <c r="U16" s="68"/>
-      <c r="V16" s="68"/>
-      <c r="W16" s="68"/>
-      <c r="X16" s="68"/>
-      <c r="Y16" s="77"/>
-      <c r="Z16" s="77"/>
-      <c r="AA16" s="5"/>
+      <c r="T16" s="52"/>
+      <c r="U16" s="76"/>
+      <c r="V16" s="76"/>
+      <c r="W16" s="76"/>
+      <c r="X16" s="76"/>
+      <c r="Y16" s="84"/>
+      <c r="Z16" s="84"/>
+      <c r="AA16" s="52"/>
       <c r="AB16" s="4"/>
       <c r="AC16" s="4"/>
       <c r="AD16" s="4"/>
@@ -2350,18 +2399,18 @@
       <c r="Q17" s="38"/>
       <c r="R17" s="5"/>
       <c r="S17" s="4"/>
-      <c r="T17" s="5"/>
-      <c r="U17" s="83" t="s">
-        <v>43</v>
+      <c r="T17" s="52"/>
+      <c r="U17" s="71" t="s">
+        <v>40</v>
       </c>
-      <c r="V17" s="83"/>
-      <c r="W17" s="83"/>
-      <c r="X17" s="83"/>
-      <c r="Y17" s="78">
+      <c r="V17" s="71"/>
+      <c r="W17" s="71"/>
+      <c r="X17" s="71"/>
+      <c r="Y17" s="85">
         <v>1</v>
       </c>
-      <c r="Z17" s="78"/>
-      <c r="AA17" s="5"/>
+      <c r="Z17" s="85"/>
+      <c r="AA17" s="52"/>
       <c r="AB17" s="4"/>
       <c r="AC17" s="4"/>
       <c r="AD17" s="4"/>
@@ -2419,14 +2468,14 @@
       <c r="Q18" s="34"/>
       <c r="R18" s="5"/>
       <c r="S18" s="4"/>
-      <c r="T18" s="5"/>
-      <c r="U18" s="54"/>
-      <c r="V18" s="54"/>
-      <c r="W18" s="54"/>
-      <c r="X18" s="54"/>
-      <c r="Y18" s="64"/>
-      <c r="Z18" s="64"/>
-      <c r="AA18" s="5"/>
+      <c r="T18" s="52"/>
+      <c r="U18" s="61"/>
+      <c r="V18" s="61"/>
+      <c r="W18" s="61"/>
+      <c r="X18" s="61"/>
+      <c r="Y18" s="62"/>
+      <c r="Z18" s="62"/>
+      <c r="AA18" s="52"/>
       <c r="AB18" s="4"/>
       <c r="AC18" s="4"/>
       <c r="AD18" s="4"/>
@@ -2460,7 +2509,7 @@
       <c r="K19" s="35"/>
       <c r="L19" s="21"/>
       <c r="M19" s="21" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="N19" s="21"/>
       <c r="O19" s="21" t="s">
@@ -2470,14 +2519,14 @@
       <c r="Q19" s="22"/>
       <c r="R19" s="5"/>
       <c r="S19" s="4"/>
-      <c r="T19" s="5"/>
-      <c r="U19" s="53"/>
-      <c r="V19" s="53"/>
-      <c r="W19" s="53"/>
-      <c r="X19" s="53"/>
-      <c r="Y19" s="53"/>
-      <c r="Z19" s="15"/>
-      <c r="AA19" s="5"/>
+      <c r="T19" s="52"/>
+      <c r="U19" s="63"/>
+      <c r="V19" s="63"/>
+      <c r="W19" s="63"/>
+      <c r="X19" s="63"/>
+      <c r="Y19" s="63"/>
+      <c r="Z19" s="64"/>
+      <c r="AA19" s="52"/>
       <c r="AB19" s="4"/>
       <c r="AC19" s="4"/>
       <c r="AD19" s="4"/>
@@ -2515,16 +2564,16 @@
       <c r="Q20" s="38"/>
       <c r="R20" s="5"/>
       <c r="S20" s="4"/>
-      <c r="T20" s="5"/>
-      <c r="U20" s="70" t="s">
-        <v>42</v>
+      <c r="T20" s="52"/>
+      <c r="U20" s="77" t="s">
+        <v>39</v>
       </c>
-      <c r="V20" s="71"/>
-      <c r="W20" s="71"/>
-      <c r="X20" s="71"/>
-      <c r="Y20" s="71"/>
-      <c r="Z20" s="72"/>
-      <c r="AA20" s="5"/>
+      <c r="V20" s="78"/>
+      <c r="W20" s="78"/>
+      <c r="X20" s="78"/>
+      <c r="Y20" s="78"/>
+      <c r="Z20" s="79"/>
+      <c r="AA20" s="52"/>
       <c r="AB20" s="4"/>
       <c r="AC20" s="4"/>
       <c r="AD20" s="4"/>
@@ -2582,14 +2631,14 @@
       <c r="Q21" s="34"/>
       <c r="R21" s="5"/>
       <c r="S21" s="4"/>
-      <c r="T21" s="5"/>
-      <c r="U21" s="73"/>
-      <c r="V21" s="74"/>
-      <c r="W21" s="74"/>
-      <c r="X21" s="74"/>
-      <c r="Y21" s="74"/>
-      <c r="Z21" s="75"/>
-      <c r="AA21" s="5"/>
+      <c r="T21" s="52"/>
+      <c r="U21" s="80"/>
+      <c r="V21" s="81"/>
+      <c r="W21" s="81"/>
+      <c r="X21" s="81"/>
+      <c r="Y21" s="81"/>
+      <c r="Z21" s="82"/>
+      <c r="AA21" s="52"/>
       <c r="AB21" s="4"/>
       <c r="AC21" s="4"/>
       <c r="AD21" s="4"/>
@@ -2627,14 +2676,14 @@
       <c r="Q22" s="22"/>
       <c r="R22" s="5"/>
       <c r="S22" s="4"/>
-      <c r="T22" s="5"/>
-      <c r="U22" s="53"/>
-      <c r="V22" s="53"/>
-      <c r="W22" s="53"/>
-      <c r="X22" s="53"/>
-      <c r="Y22" s="53"/>
-      <c r="Z22" s="15"/>
-      <c r="AA22" s="5"/>
+      <c r="T22" s="52"/>
+      <c r="U22" s="63"/>
+      <c r="V22" s="63"/>
+      <c r="W22" s="63"/>
+      <c r="X22" s="63"/>
+      <c r="Y22" s="63"/>
+      <c r="Z22" s="64"/>
+      <c r="AA22" s="52"/>
       <c r="AB22" s="4"/>
       <c r="AC22" s="4"/>
       <c r="AD22" s="4"/>
@@ -2672,18 +2721,18 @@
       <c r="Q23" s="38"/>
       <c r="R23" s="5"/>
       <c r="S23" s="4"/>
-      <c r="T23" s="5"/>
-      <c r="U23" s="51" t="s">
-        <v>38</v>
+      <c r="T23" s="52"/>
+      <c r="U23" s="59" t="s">
+        <v>35</v>
       </c>
-      <c r="V23" s="51"/>
-      <c r="W23" s="51"/>
-      <c r="X23" s="51"/>
-      <c r="Y23" s="82" t="s">
+      <c r="V23" s="59"/>
+      <c r="W23" s="59"/>
+      <c r="X23" s="59"/>
+      <c r="Y23" s="70" t="s">
         <v>1</v>
       </c>
-      <c r="Z23" s="82"/>
-      <c r="AA23" s="5"/>
+      <c r="Z23" s="70"/>
+      <c r="AA23" s="52"/>
       <c r="AB23" s="4"/>
       <c r="AC23" s="4"/>
       <c r="AD23" s="4"/>
@@ -2704,59 +2753,31 @@
     <row r="24" spans="1:43" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A24" s="4"/>
       <c r="B24" s="5"/>
-      <c r="C24" s="30">
-        <v>5</v>
-      </c>
-      <c r="D24" s="31" t="s">
-        <v>27</v>
-      </c>
-      <c r="E24" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="F24" s="15">
-        <v>1</v>
-      </c>
-      <c r="G24" s="15">
-        <v>3</v>
-      </c>
-      <c r="H24" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="I24" s="16">
-        <v>60</v>
-      </c>
-      <c r="J24" s="17">
-        <v>1</v>
-      </c>
+      <c r="C24" s="30"/>
+      <c r="D24" s="31"/>
+      <c r="E24" s="15"/>
+      <c r="F24" s="15"/>
+      <c r="G24" s="15"/>
+      <c r="H24" s="15"/>
+      <c r="I24" s="16"/>
+      <c r="J24" s="17"/>
       <c r="K24" s="32"/>
-      <c r="L24" s="33" t="s">
-        <v>29</v>
-      </c>
-      <c r="M24" s="33" t="s">
-        <v>29</v>
-      </c>
-      <c r="N24" s="33" t="s">
-        <v>29</v>
-      </c>
-      <c r="O24" s="33" t="s">
-        <v>29</v>
-      </c>
-      <c r="P24" s="33" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q24" s="34" t="s">
-        <v>29</v>
-      </c>
+      <c r="L24" s="33"/>
+      <c r="M24" s="33"/>
+      <c r="N24" s="33"/>
+      <c r="O24" s="33"/>
+      <c r="P24" s="33"/>
+      <c r="Q24" s="34"/>
       <c r="R24" s="5"/>
       <c r="S24" s="4"/>
-      <c r="T24" s="5"/>
-      <c r="U24" s="69"/>
-      <c r="V24" s="69"/>
-      <c r="W24" s="69"/>
-      <c r="X24" s="69"/>
-      <c r="Y24" s="52"/>
-      <c r="Z24" s="52"/>
-      <c r="AA24" s="5"/>
+      <c r="T24" s="52"/>
+      <c r="U24" s="72"/>
+      <c r="V24" s="72"/>
+      <c r="W24" s="72"/>
+      <c r="X24" s="72"/>
+      <c r="Y24" s="60"/>
+      <c r="Z24" s="60"/>
+      <c r="AA24" s="52"/>
       <c r="AB24" s="4"/>
       <c r="AC24" s="4"/>
       <c r="AD24" s="4"/>
@@ -2794,14 +2815,14 @@
       <c r="Q25" s="22"/>
       <c r="R25" s="5"/>
       <c r="S25" s="4"/>
-      <c r="T25" s="5"/>
-      <c r="U25" s="65"/>
-      <c r="V25" s="65"/>
-      <c r="W25" s="65"/>
-      <c r="X25" s="65"/>
-      <c r="Y25" s="63"/>
-      <c r="Z25" s="63"/>
-      <c r="AA25" s="5"/>
+      <c r="T25" s="52"/>
+      <c r="U25" s="73"/>
+      <c r="V25" s="73"/>
+      <c r="W25" s="73"/>
+      <c r="X25" s="73"/>
+      <c r="Y25" s="65"/>
+      <c r="Z25" s="65"/>
+      <c r="AA25" s="52"/>
       <c r="AB25" s="4"/>
       <c r="AC25" s="4"/>
       <c r="AD25" s="4"/>
@@ -2839,14 +2860,14 @@
       <c r="Q26" s="38"/>
       <c r="R26" s="5"/>
       <c r="S26" s="4"/>
-      <c r="T26" s="5"/>
-      <c r="U26" s="65"/>
-      <c r="V26" s="65"/>
-      <c r="W26" s="65"/>
-      <c r="X26" s="65"/>
-      <c r="Y26" s="63"/>
-      <c r="Z26" s="63"/>
-      <c r="AA26" s="5"/>
+      <c r="T26" s="52"/>
+      <c r="U26" s="73"/>
+      <c r="V26" s="73"/>
+      <c r="W26" s="73"/>
+      <c r="X26" s="73"/>
+      <c r="Y26" s="65"/>
+      <c r="Z26" s="65"/>
+      <c r="AA26" s="52"/>
       <c r="AB26" s="4"/>
       <c r="AC26" s="4"/>
       <c r="AD26" s="4"/>
@@ -2867,31 +2888,31 @@
     <row r="27" spans="1:43" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="4"/>
       <c r="B27" s="5"/>
-      <c r="C27" s="15"/>
-      <c r="D27" s="20"/>
+      <c r="C27" s="30"/>
+      <c r="D27" s="31"/>
       <c r="E27" s="15"/>
       <c r="F27" s="15"/>
       <c r="G27" s="15"/>
       <c r="H27" s="15"/>
-      <c r="I27" s="15"/>
-      <c r="J27" s="15"/>
-      <c r="K27" s="21"/>
-      <c r="L27" s="21"/>
-      <c r="M27" s="21"/>
-      <c r="N27" s="21"/>
-      <c r="O27" s="21"/>
-      <c r="P27" s="21"/>
-      <c r="Q27" s="21"/>
+      <c r="I27" s="16"/>
+      <c r="J27" s="17"/>
+      <c r="K27" s="32"/>
+      <c r="L27" s="33"/>
+      <c r="M27" s="33"/>
+      <c r="N27" s="33"/>
+      <c r="O27" s="33"/>
+      <c r="P27" s="33"/>
+      <c r="Q27" s="34"/>
       <c r="R27" s="5"/>
       <c r="S27" s="4"/>
-      <c r="T27" s="5"/>
-      <c r="U27" s="65"/>
-      <c r="V27" s="65"/>
-      <c r="W27" s="65"/>
-      <c r="X27" s="65"/>
-      <c r="Y27" s="62"/>
-      <c r="Z27" s="62"/>
-      <c r="AA27" s="5"/>
+      <c r="T27" s="52"/>
+      <c r="U27" s="73"/>
+      <c r="V27" s="73"/>
+      <c r="W27" s="73"/>
+      <c r="X27" s="73"/>
+      <c r="Y27" s="66"/>
+      <c r="Z27" s="66"/>
+      <c r="AA27" s="52"/>
       <c r="AB27" s="4"/>
       <c r="AC27" s="4"/>
       <c r="AD27" s="4"/>
@@ -2911,32 +2932,32 @@
     </row>
     <row r="28" spans="1:43" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="4"/>
-      <c r="B28" s="4"/>
-      <c r="C28" s="4"/>
-      <c r="D28" s="4"/>
-      <c r="E28" s="4"/>
-      <c r="F28" s="4"/>
-      <c r="G28" s="4"/>
-      <c r="H28" s="4"/>
-      <c r="I28" s="4"/>
-      <c r="J28" s="4"/>
-      <c r="K28" s="4"/>
-      <c r="L28" s="4"/>
-      <c r="M28" s="4"/>
-      <c r="N28" s="4"/>
-      <c r="O28" s="4"/>
-      <c r="P28" s="4"/>
-      <c r="Q28" s="4"/>
-      <c r="R28" s="4"/>
+      <c r="B28" s="5"/>
+      <c r="C28" s="15"/>
+      <c r="D28" s="20"/>
+      <c r="E28" s="15"/>
+      <c r="F28" s="15"/>
+      <c r="G28" s="15"/>
+      <c r="H28" s="15"/>
+      <c r="I28" s="16"/>
+      <c r="J28" s="17"/>
+      <c r="K28" s="35"/>
+      <c r="L28" s="21"/>
+      <c r="M28" s="21"/>
+      <c r="N28" s="21"/>
+      <c r="O28" s="21"/>
+      <c r="P28" s="21"/>
+      <c r="Q28" s="22"/>
+      <c r="R28" s="5"/>
       <c r="S28" s="4"/>
-      <c r="T28" s="5"/>
-      <c r="U28" s="66"/>
-      <c r="V28" s="66"/>
-      <c r="W28" s="66"/>
-      <c r="X28" s="66"/>
-      <c r="Y28" s="64"/>
-      <c r="Z28" s="64"/>
-      <c r="AA28" s="5"/>
+      <c r="T28" s="52"/>
+      <c r="U28" s="74"/>
+      <c r="V28" s="74"/>
+      <c r="W28" s="74"/>
+      <c r="X28" s="74"/>
+      <c r="Y28" s="62"/>
+      <c r="Z28" s="62"/>
+      <c r="AA28" s="52"/>
       <c r="AB28" s="4"/>
       <c r="AC28" s="4"/>
       <c r="AD28" s="4"/>
@@ -2956,32 +2977,32 @@
     </row>
     <row r="29" spans="1:43" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A29" s="4"/>
-      <c r="B29" s="4"/>
-      <c r="C29" s="4"/>
-      <c r="D29" s="4"/>
-      <c r="E29" s="4"/>
-      <c r="F29" s="4"/>
-      <c r="G29" s="4"/>
-      <c r="H29" s="4"/>
-      <c r="I29" s="4"/>
-      <c r="J29" s="4"/>
-      <c r="K29" s="4"/>
-      <c r="L29" s="4"/>
-      <c r="M29" s="4"/>
-      <c r="N29" s="4"/>
-      <c r="O29" s="4"/>
-      <c r="P29" s="4"/>
-      <c r="Q29" s="4"/>
-      <c r="R29" s="4"/>
+      <c r="B29" s="5"/>
+      <c r="C29" s="23"/>
+      <c r="D29" s="24"/>
+      <c r="E29" s="23"/>
+      <c r="F29" s="23"/>
+      <c r="G29" s="23"/>
+      <c r="H29" s="23"/>
+      <c r="I29" s="25"/>
+      <c r="J29" s="26"/>
+      <c r="K29" s="36"/>
+      <c r="L29" s="37"/>
+      <c r="M29" s="37"/>
+      <c r="N29" s="37"/>
+      <c r="O29" s="37"/>
+      <c r="P29" s="37"/>
+      <c r="Q29" s="38"/>
+      <c r="R29" s="5"/>
       <c r="S29" s="4"/>
-      <c r="T29" s="5"/>
-      <c r="U29" s="53"/>
-      <c r="V29" s="53"/>
-      <c r="W29" s="53"/>
-      <c r="X29" s="53"/>
-      <c r="Y29" s="53"/>
-      <c r="Z29" s="15"/>
-      <c r="AA29" s="5"/>
+      <c r="T29" s="52"/>
+      <c r="U29" s="63"/>
+      <c r="V29" s="63"/>
+      <c r="W29" s="63"/>
+      <c r="X29" s="63"/>
+      <c r="Y29" s="63"/>
+      <c r="Z29" s="64"/>
+      <c r="AA29" s="52"/>
       <c r="AB29" s="4"/>
       <c r="AC29" s="4"/>
       <c r="AD29" s="4"/>
@@ -3001,23 +3022,23 @@
     </row>
     <row r="30" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A30" s="4"/>
-      <c r="B30" s="4"/>
-      <c r="C30" s="4"/>
-      <c r="D30" s="4"/>
-      <c r="E30" s="4"/>
-      <c r="F30" s="4"/>
-      <c r="G30" s="4"/>
-      <c r="H30" s="4"/>
-      <c r="I30" s="4"/>
-      <c r="J30" s="4"/>
-      <c r="K30" s="4"/>
-      <c r="L30" s="4"/>
-      <c r="M30" s="4"/>
-      <c r="N30" s="4"/>
-      <c r="O30" s="4"/>
-      <c r="P30" s="4"/>
-      <c r="Q30" s="4"/>
-      <c r="R30" s="4"/>
+      <c r="B30" s="5"/>
+      <c r="C30" s="30"/>
+      <c r="D30" s="31"/>
+      <c r="E30" s="15"/>
+      <c r="F30" s="15"/>
+      <c r="G30" s="15"/>
+      <c r="H30" s="15"/>
+      <c r="I30" s="16"/>
+      <c r="J30" s="17"/>
+      <c r="K30" s="32"/>
+      <c r="L30" s="33"/>
+      <c r="M30" s="33"/>
+      <c r="N30" s="33"/>
+      <c r="O30" s="33"/>
+      <c r="P30" s="33"/>
+      <c r="Q30" s="34"/>
+      <c r="R30" s="5"/>
       <c r="S30" s="4"/>
       <c r="T30" s="4"/>
       <c r="U30" s="4"/>
@@ -3046,23 +3067,23 @@
     </row>
     <row r="31" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A31" s="4"/>
-      <c r="B31" s="4"/>
-      <c r="C31" s="4"/>
-      <c r="D31" s="4"/>
-      <c r="E31" s="4"/>
-      <c r="F31" s="4"/>
-      <c r="G31" s="4"/>
-      <c r="H31" s="4"/>
-      <c r="I31" s="4"/>
-      <c r="J31" s="4"/>
-      <c r="K31" s="4"/>
-      <c r="L31" s="4"/>
-      <c r="M31" s="4"/>
-      <c r="N31" s="4"/>
-      <c r="O31" s="4"/>
-      <c r="P31" s="4"/>
-      <c r="Q31" s="4"/>
-      <c r="R31" s="4"/>
+      <c r="B31" s="5"/>
+      <c r="C31" s="15"/>
+      <c r="D31" s="20"/>
+      <c r="E31" s="15"/>
+      <c r="F31" s="15"/>
+      <c r="G31" s="15"/>
+      <c r="H31" s="15"/>
+      <c r="I31" s="16"/>
+      <c r="J31" s="17"/>
+      <c r="K31" s="35"/>
+      <c r="L31" s="21"/>
+      <c r="M31" s="21"/>
+      <c r="N31" s="21"/>
+      <c r="O31" s="21"/>
+      <c r="P31" s="21"/>
+      <c r="Q31" s="22"/>
+      <c r="R31" s="5"/>
       <c r="S31" s="4"/>
       <c r="T31" s="4"/>
       <c r="U31" s="4"/>
@@ -3091,23 +3112,23 @@
     </row>
     <row r="32" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A32" s="4"/>
-      <c r="B32" s="4"/>
-      <c r="C32" s="4"/>
-      <c r="D32" s="4"/>
-      <c r="E32" s="4"/>
-      <c r="F32" s="4"/>
-      <c r="G32" s="4"/>
-      <c r="H32" s="4"/>
-      <c r="I32" s="4"/>
-      <c r="J32" s="4"/>
-      <c r="K32" s="4"/>
-      <c r="L32" s="4"/>
-      <c r="M32" s="4"/>
-      <c r="N32" s="4"/>
-      <c r="O32" s="4"/>
-      <c r="P32" s="4"/>
-      <c r="Q32" s="4"/>
-      <c r="R32" s="4"/>
+      <c r="B32" s="5"/>
+      <c r="C32" s="23"/>
+      <c r="D32" s="24"/>
+      <c r="E32" s="23"/>
+      <c r="F32" s="23"/>
+      <c r="G32" s="23"/>
+      <c r="H32" s="23"/>
+      <c r="I32" s="25"/>
+      <c r="J32" s="26"/>
+      <c r="K32" s="36"/>
+      <c r="L32" s="37"/>
+      <c r="M32" s="37"/>
+      <c r="N32" s="37"/>
+      <c r="O32" s="37"/>
+      <c r="P32" s="37"/>
+      <c r="Q32" s="38"/>
+      <c r="R32" s="5"/>
       <c r="S32" s="4"/>
       <c r="T32" s="4"/>
       <c r="U32" s="4"/>
@@ -3136,23 +3157,23 @@
     </row>
     <row r="33" spans="1:43" x14ac:dyDescent="0.3">
       <c r="A33" s="4"/>
-      <c r="B33" s="4"/>
-      <c r="C33" s="4"/>
-      <c r="D33" s="4"/>
-      <c r="E33" s="4"/>
-      <c r="F33" s="4"/>
-      <c r="G33" s="4"/>
-      <c r="H33" s="4"/>
-      <c r="I33" s="4"/>
-      <c r="J33" s="4"/>
-      <c r="K33" s="4"/>
-      <c r="L33" s="4"/>
-      <c r="M33" s="4"/>
-      <c r="N33" s="4"/>
-      <c r="O33" s="4"/>
-      <c r="P33" s="4"/>
-      <c r="Q33" s="4"/>
-      <c r="R33" s="4"/>
+      <c r="B33" s="5"/>
+      <c r="C33" s="15"/>
+      <c r="D33" s="20"/>
+      <c r="E33" s="15"/>
+      <c r="F33" s="15"/>
+      <c r="G33" s="15"/>
+      <c r="H33" s="15"/>
+      <c r="I33" s="15"/>
+      <c r="J33" s="15"/>
+      <c r="K33" s="21"/>
+      <c r="L33" s="21"/>
+      <c r="M33" s="21"/>
+      <c r="N33" s="21"/>
+      <c r="O33" s="21"/>
+      <c r="P33" s="21"/>
+      <c r="Q33" s="21"/>
+      <c r="R33" s="5"/>
       <c r="S33" s="4"/>
       <c r="T33" s="4"/>
       <c r="U33" s="4"/>
@@ -12586,12 +12607,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="U11:Z11"/>
-    <mergeCell ref="U6:Z6"/>
-    <mergeCell ref="Y13:Z13"/>
-    <mergeCell ref="Y23:Z23"/>
-    <mergeCell ref="U17:X17"/>
-    <mergeCell ref="Y14:Z14"/>
     <mergeCell ref="U27:X27"/>
     <mergeCell ref="U28:X28"/>
     <mergeCell ref="U15:X16"/>
@@ -12601,6 +12616,12 @@
     <mergeCell ref="U20:Z21"/>
     <mergeCell ref="Y15:Z16"/>
     <mergeCell ref="Y17:Z17"/>
+    <mergeCell ref="U11:Z11"/>
+    <mergeCell ref="U6:Z6"/>
+    <mergeCell ref="Y13:Z13"/>
+    <mergeCell ref="Y23:Z23"/>
+    <mergeCell ref="U17:X17"/>
+    <mergeCell ref="Y14:Z14"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>

--- a/InputTable.xlsx
+++ b/InputTable.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pedro\OneDrive\Documentos\Projects\Timetabling\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A12BFFF4-F0C7-488D-9809-0A694886D2C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81E43746-4712-436D-A25B-06FBE5B262F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{610BFD9D-4D13-47B9-A319-B13DCC8CE800}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="49">
   <si>
     <t>Type</t>
   </si>
@@ -199,6 +199,15 @@
   </si>
   <si>
     <t>12:30 - 18:30</t>
+  </si>
+  <si>
+    <t>Gym</t>
+  </si>
+  <si>
+    <t>Sport</t>
+  </si>
+  <si>
+    <t>13:30 - 15:30</t>
   </si>
 </sst>
 </file>
@@ -1055,30 +1064,6 @@
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="44" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="44" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
@@ -1093,6 +1078,10 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1129,6 +1118,26 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="44" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="44" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -1482,7 +1491,7 @@
   <dimension ref="A1:AQ242"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A2" zoomScale="88" workbookViewId="0">
-      <selection activeCell="P6" sqref="P6"/>
+      <selection activeCell="Y17" sqref="Y17:Z17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1765,14 +1774,14 @@
       <c r="R6" s="5"/>
       <c r="S6" s="4"/>
       <c r="T6" s="52"/>
-      <c r="U6" s="67" t="s">
+      <c r="U6" s="81" t="s">
         <v>31</v>
       </c>
-      <c r="V6" s="68"/>
-      <c r="W6" s="68"/>
-      <c r="X6" s="68"/>
-      <c r="Y6" s="68"/>
-      <c r="Z6" s="69"/>
+      <c r="V6" s="82"/>
+      <c r="W6" s="82"/>
+      <c r="X6" s="82"/>
+      <c r="Y6" s="82"/>
+      <c r="Z6" s="83"/>
       <c r="AA6" s="52"/>
       <c r="AB6" s="4"/>
       <c r="AC6" s="4"/>
@@ -2072,14 +2081,14 @@
       <c r="R11" s="5"/>
       <c r="S11" s="4"/>
       <c r="T11" s="52"/>
-      <c r="U11" s="67" t="s">
+      <c r="U11" s="81" t="s">
         <v>42</v>
       </c>
-      <c r="V11" s="68"/>
-      <c r="W11" s="68"/>
-      <c r="X11" s="68"/>
-      <c r="Y11" s="68"/>
-      <c r="Z11" s="69"/>
+      <c r="V11" s="82"/>
+      <c r="W11" s="82"/>
+      <c r="X11" s="82"/>
+      <c r="Y11" s="82"/>
+      <c r="Z11" s="83"/>
       <c r="AA11" s="52"/>
       <c r="AB11" s="4"/>
       <c r="AC11" s="4"/>
@@ -2192,10 +2201,10 @@
       <c r="V13" s="59"/>
       <c r="W13" s="59"/>
       <c r="X13" s="59"/>
-      <c r="Y13" s="70" t="s">
+      <c r="Y13" s="84" t="s">
         <v>44</v>
       </c>
-      <c r="Z13" s="70"/>
+      <c r="Z13" s="84"/>
       <c r="AA13" s="52"/>
       <c r="AB13" s="4"/>
       <c r="AC13" s="4"/>
@@ -2241,10 +2250,10 @@
       <c r="V14" s="60"/>
       <c r="W14" s="60"/>
       <c r="X14" s="60"/>
-      <c r="Y14" s="72">
+      <c r="Y14" s="71">
         <v>0</v>
       </c>
-      <c r="Z14" s="72"/>
+      <c r="Z14" s="71"/>
       <c r="AA14" s="52"/>
       <c r="AB14" s="4"/>
       <c r="AC14" s="4"/>
@@ -2306,16 +2315,16 @@
       <c r="R15" s="5"/>
       <c r="S15" s="4"/>
       <c r="T15" s="52"/>
-      <c r="U15" s="75" t="s">
+      <c r="U15" s="69" t="s">
         <v>36</v>
       </c>
-      <c r="V15" s="75"/>
-      <c r="W15" s="75"/>
-      <c r="X15" s="75"/>
-      <c r="Y15" s="83">
+      <c r="V15" s="69"/>
+      <c r="W15" s="69"/>
+      <c r="X15" s="69"/>
+      <c r="Y15" s="78">
         <v>0</v>
       </c>
-      <c r="Z15" s="83"/>
+      <c r="Z15" s="78"/>
       <c r="AA15" s="52"/>
       <c r="AB15" s="4"/>
       <c r="AC15" s="4"/>
@@ -2355,12 +2364,12 @@
       <c r="R16" s="5"/>
       <c r="S16" s="4"/>
       <c r="T16" s="52"/>
-      <c r="U16" s="76"/>
-      <c r="V16" s="76"/>
-      <c r="W16" s="76"/>
-      <c r="X16" s="76"/>
-      <c r="Y16" s="84"/>
-      <c r="Z16" s="84"/>
+      <c r="U16" s="70"/>
+      <c r="V16" s="70"/>
+      <c r="W16" s="70"/>
+      <c r="X16" s="70"/>
+      <c r="Y16" s="79"/>
+      <c r="Z16" s="79"/>
       <c r="AA16" s="52"/>
       <c r="AB16" s="4"/>
       <c r="AC16" s="4"/>
@@ -2400,16 +2409,16 @@
       <c r="R17" s="5"/>
       <c r="S17" s="4"/>
       <c r="T17" s="52"/>
-      <c r="U17" s="71" t="s">
+      <c r="U17" s="85" t="s">
         <v>40</v>
       </c>
-      <c r="V17" s="71"/>
-      <c r="W17" s="71"/>
-      <c r="X17" s="71"/>
-      <c r="Y17" s="85">
+      <c r="V17" s="85"/>
+      <c r="W17" s="85"/>
+      <c r="X17" s="85"/>
+      <c r="Y17" s="80">
         <v>1</v>
       </c>
-      <c r="Z17" s="85"/>
+      <c r="Z17" s="80"/>
       <c r="AA17" s="52"/>
       <c r="AB17" s="4"/>
       <c r="AC17" s="4"/>
@@ -2565,14 +2574,14 @@
       <c r="R20" s="5"/>
       <c r="S20" s="4"/>
       <c r="T20" s="52"/>
-      <c r="U20" s="77" t="s">
+      <c r="U20" s="72" t="s">
         <v>39</v>
       </c>
-      <c r="V20" s="78"/>
-      <c r="W20" s="78"/>
-      <c r="X20" s="78"/>
-      <c r="Y20" s="78"/>
-      <c r="Z20" s="79"/>
+      <c r="V20" s="73"/>
+      <c r="W20" s="73"/>
+      <c r="X20" s="73"/>
+      <c r="Y20" s="73"/>
+      <c r="Z20" s="74"/>
       <c r="AA20" s="52"/>
       <c r="AB20" s="4"/>
       <c r="AC20" s="4"/>
@@ -2632,12 +2641,12 @@
       <c r="R21" s="5"/>
       <c r="S21" s="4"/>
       <c r="T21" s="52"/>
-      <c r="U21" s="80"/>
-      <c r="V21" s="81"/>
-      <c r="W21" s="81"/>
-      <c r="X21" s="81"/>
-      <c r="Y21" s="81"/>
-      <c r="Z21" s="82"/>
+      <c r="U21" s="75"/>
+      <c r="V21" s="76"/>
+      <c r="W21" s="76"/>
+      <c r="X21" s="76"/>
+      <c r="Y21" s="76"/>
+      <c r="Z21" s="77"/>
       <c r="AA21" s="52"/>
       <c r="AB21" s="4"/>
       <c r="AC21" s="4"/>
@@ -2728,10 +2737,10 @@
       <c r="V23" s="59"/>
       <c r="W23" s="59"/>
       <c r="X23" s="59"/>
-      <c r="Y23" s="70" t="s">
+      <c r="Y23" s="84" t="s">
         <v>1</v>
       </c>
-      <c r="Z23" s="70"/>
+      <c r="Z23" s="84"/>
       <c r="AA23" s="52"/>
       <c r="AB23" s="4"/>
       <c r="AC23" s="4"/>
@@ -2753,28 +2762,56 @@
     <row r="24" spans="1:43" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A24" s="4"/>
       <c r="B24" s="5"/>
-      <c r="C24" s="30"/>
-      <c r="D24" s="31"/>
-      <c r="E24" s="15"/>
-      <c r="F24" s="15"/>
-      <c r="G24" s="15"/>
-      <c r="H24" s="15"/>
-      <c r="I24" s="16"/>
-      <c r="J24" s="17"/>
+      <c r="C24" s="30">
+        <v>5</v>
+      </c>
+      <c r="D24" s="31" t="s">
+        <v>46</v>
+      </c>
+      <c r="E24" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="F24" s="15">
+        <v>1</v>
+      </c>
+      <c r="G24" s="15">
+        <v>3</v>
+      </c>
+      <c r="H24" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="I24" s="16">
+        <v>60</v>
+      </c>
+      <c r="J24" s="17">
+        <v>1</v>
+      </c>
       <c r="K24" s="32"/>
-      <c r="L24" s="33"/>
-      <c r="M24" s="33"/>
-      <c r="N24" s="33"/>
-      <c r="O24" s="33"/>
-      <c r="P24" s="33"/>
-      <c r="Q24" s="34"/>
+      <c r="L24" s="33" t="s">
+        <v>48</v>
+      </c>
+      <c r="M24" s="33" t="s">
+        <v>48</v>
+      </c>
+      <c r="N24" s="33" t="s">
+        <v>48</v>
+      </c>
+      <c r="O24" s="33" t="s">
+        <v>48</v>
+      </c>
+      <c r="P24" s="33" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q24" s="34" t="s">
+        <v>48</v>
+      </c>
       <c r="R24" s="5"/>
       <c r="S24" s="4"/>
       <c r="T24" s="52"/>
-      <c r="U24" s="72"/>
-      <c r="V24" s="72"/>
-      <c r="W24" s="72"/>
-      <c r="X24" s="72"/>
+      <c r="U24" s="71"/>
+      <c r="V24" s="71"/>
+      <c r="W24" s="71"/>
+      <c r="X24" s="71"/>
       <c r="Y24" s="60"/>
       <c r="Z24" s="60"/>
       <c r="AA24" s="52"/>
@@ -2816,10 +2853,10 @@
       <c r="R25" s="5"/>
       <c r="S25" s="4"/>
       <c r="T25" s="52"/>
-      <c r="U25" s="73"/>
-      <c r="V25" s="73"/>
-      <c r="W25" s="73"/>
-      <c r="X25" s="73"/>
+      <c r="U25" s="67"/>
+      <c r="V25" s="67"/>
+      <c r="W25" s="67"/>
+      <c r="X25" s="67"/>
       <c r="Y25" s="65"/>
       <c r="Z25" s="65"/>
       <c r="AA25" s="52"/>
@@ -2861,10 +2898,10 @@
       <c r="R26" s="5"/>
       <c r="S26" s="4"/>
       <c r="T26" s="52"/>
-      <c r="U26" s="73"/>
-      <c r="V26" s="73"/>
-      <c r="W26" s="73"/>
-      <c r="X26" s="73"/>
+      <c r="U26" s="67"/>
+      <c r="V26" s="67"/>
+      <c r="W26" s="67"/>
+      <c r="X26" s="67"/>
       <c r="Y26" s="65"/>
       <c r="Z26" s="65"/>
       <c r="AA26" s="52"/>
@@ -2906,10 +2943,10 @@
       <c r="R27" s="5"/>
       <c r="S27" s="4"/>
       <c r="T27" s="52"/>
-      <c r="U27" s="73"/>
-      <c r="V27" s="73"/>
-      <c r="W27" s="73"/>
-      <c r="X27" s="73"/>
+      <c r="U27" s="67"/>
+      <c r="V27" s="67"/>
+      <c r="W27" s="67"/>
+      <c r="X27" s="67"/>
       <c r="Y27" s="66"/>
       <c r="Z27" s="66"/>
       <c r="AA27" s="52"/>
@@ -2951,10 +2988,10 @@
       <c r="R28" s="5"/>
       <c r="S28" s="4"/>
       <c r="T28" s="52"/>
-      <c r="U28" s="74"/>
-      <c r="V28" s="74"/>
-      <c r="W28" s="74"/>
-      <c r="X28" s="74"/>
+      <c r="U28" s="68"/>
+      <c r="V28" s="68"/>
+      <c r="W28" s="68"/>
+      <c r="X28" s="68"/>
       <c r="Y28" s="62"/>
       <c r="Z28" s="62"/>
       <c r="AA28" s="52"/>
@@ -12607,6 +12644,12 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="U11:Z11"/>
+    <mergeCell ref="U6:Z6"/>
+    <mergeCell ref="Y13:Z13"/>
+    <mergeCell ref="Y23:Z23"/>
+    <mergeCell ref="U17:X17"/>
+    <mergeCell ref="Y14:Z14"/>
     <mergeCell ref="U27:X27"/>
     <mergeCell ref="U28:X28"/>
     <mergeCell ref="U15:X16"/>
@@ -12616,12 +12659,6 @@
     <mergeCell ref="U20:Z21"/>
     <mergeCell ref="Y15:Z16"/>
     <mergeCell ref="Y17:Z17"/>
-    <mergeCell ref="U11:Z11"/>
-    <mergeCell ref="U6:Z6"/>
-    <mergeCell ref="Y13:Z13"/>
-    <mergeCell ref="Y23:Z23"/>
-    <mergeCell ref="U17:X17"/>
-    <mergeCell ref="Y14:Z14"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
